--- a/New-Implementation/Data/complex-data.xlsx
+++ b/New-Implementation/Data/complex-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5CC4C-E2DB-4B26-A21C-2E4A164C682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A81A1-4F2B-43D2-994B-384940C6E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Expected State Values" sheetId="7" r:id="rId7"/>
     <sheet name="Generate Expected State Values" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2172,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0.99</v>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1162"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="17">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="17">
         <v>2</v>
@@ -2379,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="17">
         <v>3</v>
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="17">
         <v>4</v>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="17">
         <v>5</v>
@@ -2489,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="17">
         <v>6</v>
@@ -2525,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="17">
         <v>7</v>
@@ -2561,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="17">
         <v>8</v>
@@ -2597,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="17">
         <v>9</v>
@@ -2633,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="17">
         <v>10</v>
@@ -2669,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="17">
         <v>1</v>
@@ -5967,7 +5967,7 @@
         <v>13</v>
       </c>
       <c r="M113" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="3:13" x14ac:dyDescent="0.25">

--- a/New-Implementation/Data/complex-data.xlsx
+++ b/New-Implementation/Data/complex-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A81A1-4F2B-43D2-994B-384940C6E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0FFDAF-FF0E-476C-9891-855426F45612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -2125,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2214,7 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2319,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="M8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="M9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>9</v>
       </c>
       <c r="M16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="M17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="M21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="M22" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="M24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H25" s="17">
         <v>3</v>
@@ -3117,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="M25" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H26" s="17">
         <v>4</v>
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="M26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H27" s="17">
         <v>5</v>
@@ -3187,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="M27" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H28" s="17">
         <v>6</v>
@@ -3222,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="M28" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H29" s="17">
         <v>7</v>
@@ -3257,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="M29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H30" s="17">
         <v>8</v>
@@ -3292,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="M30" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3309,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H31" s="17">
         <v>9</v>
@@ -3327,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="M31" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H32" s="17">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="M32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H33" s="17">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="M33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H34" s="17">
         <v>2</v>
@@ -3432,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="M34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -3449,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H35" s="17">
         <v>3</v>
@@ -3467,7 +3467,7 @@
         <v>9</v>
       </c>
       <c r="M35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H36" s="17">
         <v>4</v>
@@ -3502,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="M36" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H37" s="17">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H38" s="17">
         <v>6</v>
@@ -3572,7 +3572,7 @@
         <v>9</v>
       </c>
       <c r="M38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H39" s="17">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="M39" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H40" s="17">
         <v>8</v>
@@ -3642,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="M40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H41" s="17">
         <v>9</v>
@@ -3677,7 +3677,7 @@
         <v>9</v>
       </c>
       <c r="M41" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
@@ -3694,7 +3694,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H42" s="17">
         <v>10</v>
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="M42" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
@@ -3729,7 +3729,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H43" s="17">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="M43" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H44" s="17">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="M44" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H45" s="17">
         <v>3</v>
@@ -3817,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="M45" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H46" s="17">
         <v>4</v>
@@ -3852,7 +3852,7 @@
         <v>9</v>
       </c>
       <c r="M46" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H47" s="17">
         <v>5</v>
@@ -3887,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="M47" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H48" s="17">
         <v>6</v>
@@ -3922,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="M48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H49" s="17">
         <v>7</v>
@@ -3957,7 +3957,7 @@
         <v>9</v>
       </c>
       <c r="M49" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
@@ -3974,7 +3974,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H50" s="17">
         <v>8</v>
@@ -3992,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="M50" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H51" s="17">
         <v>9</v>
@@ -4027,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="M51" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H52" s="17">
         <v>10</v>
@@ -4062,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="M52" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H53" s="17">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>9</v>
       </c>
       <c r="M53" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H54" s="17">
         <v>2</v>
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="M54" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H55" s="17">
         <v>3</v>
@@ -4167,7 +4167,7 @@
         <v>9</v>
       </c>
       <c r="M55" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
@@ -4184,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H56" s="17">
         <v>4</v>
@@ -4202,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="M56" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="17">
         <v>5</v>
@@ -4237,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="M57" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H58" s="17">
         <v>6</v>
@@ -4272,7 +4272,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H59" s="17">
         <v>7</v>
@@ -4307,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="M59" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H60" s="17">
         <v>8</v>
@@ -4342,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="M60" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H61" s="17">
         <v>9</v>
@@ -4377,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="M61" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H62" s="17">
         <v>10</v>
@@ -4412,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="M62" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.25">
@@ -4429,7 +4429,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H63" s="17">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>9</v>
       </c>
       <c r="M63" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H64" s="17">
         <v>2</v>
@@ -4482,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="M64" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H65" s="17">
         <v>3</v>
@@ -4517,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="M65" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
@@ -4534,7 +4534,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H66" s="17">
         <v>4</v>
@@ -4552,7 +4552,7 @@
         <v>9</v>
       </c>
       <c r="M66" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H67" s="17">
         <v>5</v>
@@ -4587,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="M67" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H68" s="17">
         <v>6</v>
@@ -4622,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="M68" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H69" s="17">
         <v>7</v>
@@ -4657,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="M69" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.25">
@@ -4674,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H70" s="17">
         <v>8</v>
@@ -4692,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="M70" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H71" s="17">
         <v>9</v>
@@ -4727,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="M71" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
@@ -4744,7 +4744,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H72" s="17">
         <v>10</v>
@@ -4762,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="M72" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H73" s="17">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>9</v>
       </c>
       <c r="M73" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H74" s="17">
         <v>2</v>
@@ -4832,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="M74" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H75" s="17">
         <v>3</v>
@@ -4867,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="M75" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H76" s="17">
         <v>4</v>
@@ -4902,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="M76" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H77" s="17">
         <v>5</v>
@@ -4937,7 +4937,7 @@
         <v>9</v>
       </c>
       <c r="M77" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H78" s="17">
         <v>6</v>
@@ -4972,7 +4972,7 @@
         <v>9</v>
       </c>
       <c r="M78" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H79" s="17">
         <v>7</v>
@@ -5007,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="M79" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H80" s="17">
         <v>8</v>
@@ -5042,7 +5042,7 @@
         <v>9</v>
       </c>
       <c r="M80" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.25">
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="17">
         <v>9</v>
@@ -5077,7 +5077,7 @@
         <v>9</v>
       </c>
       <c r="M81" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.25">
@@ -5094,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H82" s="17">
         <v>10</v>
@@ -5112,7 +5112,7 @@
         <v>9</v>
       </c>
       <c r="M82" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.25">
@@ -5129,7 +5129,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H83" s="17">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>9</v>
       </c>
       <c r="M83" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
         <v>13</v>
       </c>
       <c r="G84" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H84" s="17">
         <v>2</v>
@@ -5182,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="M84" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>13</v>
       </c>
       <c r="G85" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H85" s="17">
         <v>3</v>
@@ -5217,7 +5217,7 @@
         <v>9</v>
       </c>
       <c r="M85" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H86" s="17">
         <v>4</v>
@@ -5252,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="M86" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.25">
@@ -5269,7 +5269,7 @@
         <v>13</v>
       </c>
       <c r="G87" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H87" s="17">
         <v>5</v>
@@ -5287,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="M87" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H88" s="17">
         <v>6</v>
@@ -5322,7 +5322,7 @@
         <v>9</v>
       </c>
       <c r="M88" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H89" s="17">
         <v>7</v>
@@ -5357,7 +5357,7 @@
         <v>9</v>
       </c>
       <c r="M89" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="G90" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H90" s="17">
         <v>8</v>
@@ -5392,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="M90" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="M91" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.25">
@@ -5442,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="M92" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.25">
@@ -5467,7 +5467,7 @@
         <v>9</v>
       </c>
       <c r="M93" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="M94" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>9</v>
       </c>
       <c r="M95" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="M96" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.25">
@@ -5567,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="M97" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="3:13" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>9</v>
       </c>
       <c r="M98" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="3:13" x14ac:dyDescent="0.25">
@@ -5617,7 +5617,7 @@
         <v>9</v>
       </c>
       <c r="M99" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="M100" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="3:13" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>9</v>
       </c>
       <c r="M101" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="3:13" x14ac:dyDescent="0.25">
@@ -5692,7 +5692,7 @@
         <v>9</v>
       </c>
       <c r="M102" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
       <c r="M103" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.25">
@@ -5742,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="M104" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="M105" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>9</v>
       </c>
       <c r="M106" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="3:13" x14ac:dyDescent="0.25">
@@ -5817,7 +5817,7 @@
         <v>9</v>
       </c>
       <c r="M107" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="3:13" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="M108" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="3:13" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
         <v>9</v>
       </c>
       <c r="M109" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>9</v>
       </c>
       <c r="M110" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="3:13" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
         <v>9</v>
       </c>
       <c r="M111" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="3:13" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="M112" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="3:13" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>13</v>
       </c>
       <c r="M113" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="3:13" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
         <v>13</v>
       </c>
       <c r="M114" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="3:13" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>13</v>
       </c>
       <c r="M115" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="3:13" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
         <v>13</v>
       </c>
       <c r="M116" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="3:13" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>13</v>
       </c>
       <c r="M117" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="3:13" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="M118" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="3:13" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="M119" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="3:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="M120" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="3:13" x14ac:dyDescent="0.25">
@@ -6167,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="M121" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="3:13" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="M122" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="3:13" x14ac:dyDescent="0.25">
@@ -6217,7 +6217,7 @@
         <v>13</v>
       </c>
       <c r="M123" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="3:13" x14ac:dyDescent="0.25">
@@ -6242,7 +6242,7 @@
         <v>13</v>
       </c>
       <c r="M124" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="3:13" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
         <v>13</v>
       </c>
       <c r="M125" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="3:13" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>13</v>
       </c>
       <c r="M126" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="3:13" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>13</v>
       </c>
       <c r="M127" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="3:13" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="M128" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="3:13" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>13</v>
       </c>
       <c r="M129" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="3:13" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="M130" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.25">
@@ -6417,7 +6417,7 @@
         <v>13</v>
       </c>
       <c r="M131" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>13</v>
       </c>
       <c r="M132" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="3:13" x14ac:dyDescent="0.25">
@@ -6467,7 +6467,7 @@
         <v>13</v>
       </c>
       <c r="M133" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="3:13" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>13</v>
       </c>
       <c r="M134" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="3:13" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>13</v>
       </c>
       <c r="M135" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="3:13" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>13</v>
       </c>
       <c r="M136" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="3:13" x14ac:dyDescent="0.25">
@@ -6567,7 +6567,7 @@
         <v>13</v>
       </c>
       <c r="M137" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>13</v>
       </c>
       <c r="M138" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="3:13" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="M139" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="3:13" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,7 @@
         <v>13</v>
       </c>
       <c r="M140" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="3:13" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>13</v>
       </c>
       <c r="M141" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
         <v>13</v>
       </c>
       <c r="M142" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="3:13" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>13</v>
       </c>
       <c r="M143" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="3:13" x14ac:dyDescent="0.25">
@@ -6742,7 +6742,7 @@
         <v>13</v>
       </c>
       <c r="M144" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.25">
@@ -6767,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="M145" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="3:13" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="M146" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="3:13" x14ac:dyDescent="0.25">
@@ -6817,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="M147" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.25">
@@ -6842,7 +6842,7 @@
         <v>13</v>
       </c>
       <c r="M148" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="3:13" x14ac:dyDescent="0.25">
@@ -6867,7 +6867,7 @@
         <v>13</v>
       </c>
       <c r="M149" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="3:13" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>13</v>
       </c>
       <c r="M150" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="3:13" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>13</v>
       </c>
       <c r="M151" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="3:13" x14ac:dyDescent="0.25">
@@ -6942,7 +6942,7 @@
         <v>13</v>
       </c>
       <c r="M152" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="3:13" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>13</v>
       </c>
       <c r="M153" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="3:13" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>13</v>
       </c>
       <c r="M154" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="3:13" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
         <v>13</v>
       </c>
       <c r="M155" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="3:13" x14ac:dyDescent="0.25">
@@ -7042,7 +7042,7 @@
         <v>13</v>
       </c>
       <c r="M156" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="3:13" x14ac:dyDescent="0.25">
@@ -7067,7 +7067,7 @@
         <v>13</v>
       </c>
       <c r="M157" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="3:13" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>13</v>
       </c>
       <c r="M158" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="3:13" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="M159" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
         <v>13</v>
       </c>
       <c r="M160" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="3:13" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>13</v>
       </c>
       <c r="M161" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="3:13" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>13</v>
       </c>
       <c r="M162" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="3:13" x14ac:dyDescent="0.25">
@@ -7217,7 +7217,7 @@
         <v>13</v>
       </c>
       <c r="M163" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="3:13" x14ac:dyDescent="0.25">
@@ -7242,7 +7242,7 @@
         <v>13</v>
       </c>
       <c r="M164" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="3:13" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
         <v>13</v>
       </c>
       <c r="M165" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="3:13" x14ac:dyDescent="0.25">
@@ -7292,7 +7292,7 @@
         <v>13</v>
       </c>
       <c r="M166" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="3:13" x14ac:dyDescent="0.25">
@@ -7317,7 +7317,7 @@
         <v>13</v>
       </c>
       <c r="M167" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="3:13" x14ac:dyDescent="0.25">
@@ -7342,7 +7342,7 @@
         <v>13</v>
       </c>
       <c r="M168" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="3:13" x14ac:dyDescent="0.25">
@@ -7367,7 +7367,7 @@
         <v>13</v>
       </c>
       <c r="M169" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="3:13" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
         <v>13</v>
       </c>
       <c r="M170" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="3:13" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
         <v>13</v>
       </c>
       <c r="M171" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="3:13" x14ac:dyDescent="0.25">
@@ -7432,7 +7432,7 @@
         <v>13</v>
       </c>
       <c r="M172" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="3:13" x14ac:dyDescent="0.25">
@@ -7452,7 +7452,7 @@
         <v>13</v>
       </c>
       <c r="M173" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="3:13" x14ac:dyDescent="0.25">
@@ -7472,7 +7472,7 @@
         <v>13</v>
       </c>
       <c r="M174" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="3:13" x14ac:dyDescent="0.25">
@@ -7492,7 +7492,7 @@
         <v>13</v>
       </c>
       <c r="M175" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="3:13" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>13</v>
       </c>
       <c r="M176" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="8:13" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>13</v>
       </c>
       <c r="M177" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="8:13" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>13</v>
       </c>
       <c r="M178" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="8:13" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>13</v>
       </c>
       <c r="M179" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="8:13" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
         <v>13</v>
       </c>
       <c r="M180" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="8:13" x14ac:dyDescent="0.25">
@@ -7612,7 +7612,7 @@
         <v>13</v>
       </c>
       <c r="M181" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="8:13" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>13</v>
       </c>
       <c r="M182" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="8:13" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>13</v>
       </c>
       <c r="M183" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="8:13" x14ac:dyDescent="0.25">
@@ -7672,7 +7672,7 @@
         <v>13</v>
       </c>
       <c r="M184" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="8:13" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>13</v>
       </c>
       <c r="M185" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="8:13" x14ac:dyDescent="0.25">
@@ -7712,7 +7712,7 @@
         <v>13</v>
       </c>
       <c r="M186" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="8:13" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>13</v>
       </c>
       <c r="M187" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="8:13" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>13</v>
       </c>
       <c r="M188" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="8:13" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>13</v>
       </c>
       <c r="M189" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="8:13" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>13</v>
       </c>
       <c r="M190" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="8:13" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>13</v>
       </c>
       <c r="M191" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="8:13" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
         <v>13</v>
       </c>
       <c r="M192" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="8:13" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>13</v>
       </c>
       <c r="M193" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="8:13" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
         <v>13</v>
       </c>
       <c r="M194" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="8:13" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>13</v>
       </c>
       <c r="M195" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="8:13" x14ac:dyDescent="0.25">
@@ -7912,7 +7912,7 @@
         <v>13</v>
       </c>
       <c r="M196" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="8:13" x14ac:dyDescent="0.25">
@@ -7932,7 +7932,7 @@
         <v>13</v>
       </c>
       <c r="M197" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="8:13" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>13</v>
       </c>
       <c r="M198" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="8:13" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>13</v>
       </c>
       <c r="M199" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="8:13" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>13</v>
       </c>
       <c r="M200" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="8:13" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="M201" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="8:13" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>13</v>
       </c>
       <c r="M202" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="8:13" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>13</v>
       </c>
       <c r="M203" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="8:13" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>13</v>
       </c>
       <c r="M204" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="8:13" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>13</v>
       </c>
       <c r="M205" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="8:13" x14ac:dyDescent="0.25">
@@ -8112,7 +8112,7 @@
         <v>13</v>
       </c>
       <c r="M206" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="8:13" x14ac:dyDescent="0.25">
@@ -8132,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="M207" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="8:13" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="M208" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="8:13" x14ac:dyDescent="0.25">
@@ -8172,7 +8172,7 @@
         <v>13</v>
       </c>
       <c r="M209" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="8:13" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>13</v>
       </c>
       <c r="M210" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="8:13" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
         <v>13</v>
       </c>
       <c r="M211" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="8:13" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
         <v>13</v>
       </c>
       <c r="M212" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="8:13" x14ac:dyDescent="0.25">
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="M213" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="8:13" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
         <v>13</v>
       </c>
       <c r="M214" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="8:13" x14ac:dyDescent="0.25">
@@ -8292,7 +8292,7 @@
         <v>13</v>
       </c>
       <c r="M215" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="8:13" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>13</v>
       </c>
       <c r="M216" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="8:13" x14ac:dyDescent="0.25">
@@ -8332,7 +8332,7 @@
         <v>13</v>
       </c>
       <c r="M217" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="8:13" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>13</v>
       </c>
       <c r="M218" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="8:13" x14ac:dyDescent="0.25">
@@ -8372,7 +8372,7 @@
         <v>13</v>
       </c>
       <c r="M219" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="8:13" x14ac:dyDescent="0.25">
@@ -8392,7 +8392,7 @@
         <v>13</v>
       </c>
       <c r="M220" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="8:13" x14ac:dyDescent="0.25">
@@ -8412,7 +8412,7 @@
         <v>13</v>
       </c>
       <c r="M221" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="8:13" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>13</v>
       </c>
       <c r="M222" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="8:13" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>9</v>
       </c>
       <c r="M223" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="224" spans="8:13" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>9</v>
       </c>
       <c r="M224" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="225" spans="8:13" x14ac:dyDescent="0.25">
@@ -8492,7 +8492,7 @@
         <v>9</v>
       </c>
       <c r="M225" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="226" spans="8:13" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>9</v>
       </c>
       <c r="M226" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="227" spans="8:13" x14ac:dyDescent="0.25">
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="M227" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="228" spans="8:13" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>9</v>
       </c>
       <c r="M228" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="229" spans="8:13" x14ac:dyDescent="0.25">
@@ -8572,7 +8572,7 @@
         <v>9</v>
       </c>
       <c r="M229" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="230" spans="8:13" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>9</v>
       </c>
       <c r="M230" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="231" spans="8:13" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>9</v>
       </c>
       <c r="M231" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="232" spans="8:13" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
         <v>9</v>
       </c>
       <c r="M232" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="233" spans="8:13" x14ac:dyDescent="0.25">
@@ -8652,7 +8652,7 @@
         <v>9</v>
       </c>
       <c r="M233" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="234" spans="8:13" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>9</v>
       </c>
       <c r="M234" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="235" spans="8:13" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="M235" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="236" spans="8:13" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
         <v>9</v>
       </c>
       <c r="M236" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="237" spans="8:13" x14ac:dyDescent="0.25">
@@ -8732,7 +8732,7 @@
         <v>9</v>
       </c>
       <c r="M237" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="238" spans="8:13" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="M238" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="239" spans="8:13" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
         <v>9</v>
       </c>
       <c r="M239" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="240" spans="8:13" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>9</v>
       </c>
       <c r="M240" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="241" spans="8:13" x14ac:dyDescent="0.25">
@@ -8812,7 +8812,7 @@
         <v>9</v>
       </c>
       <c r="M241" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="242" spans="8:13" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>9</v>
       </c>
       <c r="M242" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="243" spans="8:13" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="M243" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="244" spans="8:13" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
         <v>9</v>
       </c>
       <c r="M244" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="245" spans="8:13" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
         <v>9</v>
       </c>
       <c r="M245" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="246" spans="8:13" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>9</v>
       </c>
       <c r="M246" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="247" spans="8:13" x14ac:dyDescent="0.25">
@@ -8932,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="M247" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="248" spans="8:13" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>9</v>
       </c>
       <c r="M248" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="249" spans="8:13" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
         <v>9</v>
       </c>
       <c r="M249" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="250" spans="8:13" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>9</v>
       </c>
       <c r="M250" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="251" spans="8:13" x14ac:dyDescent="0.25">
@@ -9012,7 +9012,7 @@
         <v>9</v>
       </c>
       <c r="M251" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="252" spans="8:13" x14ac:dyDescent="0.25">
@@ -9032,7 +9032,7 @@
         <v>9</v>
       </c>
       <c r="M252" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="253" spans="8:13" x14ac:dyDescent="0.25">
@@ -9052,7 +9052,7 @@
         <v>9</v>
       </c>
       <c r="M253" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="254" spans="8:13" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>9</v>
       </c>
       <c r="M254" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="255" spans="8:13" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>9</v>
       </c>
       <c r="M255" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="256" spans="8:13" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>9</v>
       </c>
       <c r="M256" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="257" spans="8:13" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>9</v>
       </c>
       <c r="M257" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="258" spans="8:13" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>9</v>
       </c>
       <c r="M258" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="259" spans="8:13" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="M259" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="260" spans="8:13" x14ac:dyDescent="0.25">
@@ -9192,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="M260" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="261" spans="8:13" x14ac:dyDescent="0.25">
@@ -9212,7 +9212,7 @@
         <v>9</v>
       </c>
       <c r="M261" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="262" spans="8:13" x14ac:dyDescent="0.25">
@@ -9232,7 +9232,7 @@
         <v>9</v>
       </c>
       <c r="M262" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="263" spans="8:13" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
         <v>9</v>
       </c>
       <c r="M263" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="264" spans="8:13" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="M264" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="265" spans="8:13" x14ac:dyDescent="0.25">
@@ -9292,7 +9292,7 @@
         <v>9</v>
       </c>
       <c r="M265" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="266" spans="8:13" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>9</v>
       </c>
       <c r="M266" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="267" spans="8:13" x14ac:dyDescent="0.25">
@@ -9332,7 +9332,7 @@
         <v>9</v>
       </c>
       <c r="M267" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="268" spans="8:13" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>9</v>
       </c>
       <c r="M268" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="269" spans="8:13" x14ac:dyDescent="0.25">
@@ -9372,7 +9372,7 @@
         <v>9</v>
       </c>
       <c r="M269" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="270" spans="8:13" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>9</v>
       </c>
       <c r="M270" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="271" spans="8:13" x14ac:dyDescent="0.25">
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="M271" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="272" spans="8:13" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>9</v>
       </c>
       <c r="M272" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="273" spans="8:13" x14ac:dyDescent="0.25">
@@ -9452,7 +9452,7 @@
         <v>9</v>
       </c>
       <c r="M273" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="274" spans="8:13" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>9</v>
       </c>
       <c r="M274" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="275" spans="8:13" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>9</v>
       </c>
       <c r="M275" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="276" spans="8:13" x14ac:dyDescent="0.25">
@@ -9512,7 +9512,7 @@
         <v>9</v>
       </c>
       <c r="M276" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277" spans="8:13" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>9</v>
       </c>
       <c r="M277" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="278" spans="8:13" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>9</v>
       </c>
       <c r="M278" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="279" spans="8:13" x14ac:dyDescent="0.25">
@@ -9572,7 +9572,7 @@
         <v>9</v>
       </c>
       <c r="M279" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="280" spans="8:13" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="M280" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="281" spans="8:13" x14ac:dyDescent="0.25">
@@ -9612,7 +9612,7 @@
         <v>9</v>
       </c>
       <c r="M281" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="282" spans="8:13" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>9</v>
       </c>
       <c r="M282" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="283" spans="8:13" x14ac:dyDescent="0.25">
@@ -9652,7 +9652,7 @@
         <v>9</v>
       </c>
       <c r="M283" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284" spans="8:13" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>9</v>
       </c>
       <c r="M284" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="285" spans="8:13" x14ac:dyDescent="0.25">
@@ -9692,7 +9692,7 @@
         <v>9</v>
       </c>
       <c r="M285" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="286" spans="8:13" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <v>9</v>
       </c>
       <c r="M286" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="8:13" x14ac:dyDescent="0.25">
@@ -9732,7 +9732,7 @@
         <v>9</v>
       </c>
       <c r="M287" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="288" spans="8:13" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>9</v>
       </c>
       <c r="M288" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="289" spans="8:13" x14ac:dyDescent="0.25">
@@ -9772,7 +9772,7 @@
         <v>9</v>
       </c>
       <c r="M289" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="290" spans="8:13" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>9</v>
       </c>
       <c r="M290" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="291" spans="8:13" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
         <v>9</v>
       </c>
       <c r="M291" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="292" spans="8:13" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>9</v>
       </c>
       <c r="M292" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="293" spans="8:13" x14ac:dyDescent="0.25">
@@ -9852,7 +9852,7 @@
         <v>9</v>
       </c>
       <c r="M293" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="294" spans="8:13" x14ac:dyDescent="0.25">
@@ -9872,7 +9872,7 @@
         <v>9</v>
       </c>
       <c r="M294" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="295" spans="8:13" x14ac:dyDescent="0.25">
@@ -9892,7 +9892,7 @@
         <v>9</v>
       </c>
       <c r="M295" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="296" spans="8:13" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>9</v>
       </c>
       <c r="M296" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="297" spans="8:13" x14ac:dyDescent="0.25">
@@ -9932,7 +9932,7 @@
         <v>9</v>
       </c>
       <c r="M297" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="298" spans="8:13" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>9</v>
       </c>
       <c r="M298" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="299" spans="8:13" x14ac:dyDescent="0.25">
@@ -9972,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="M299" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="300" spans="8:13" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>9</v>
       </c>
       <c r="M300" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="301" spans="8:13" x14ac:dyDescent="0.25">
@@ -10012,7 +10012,7 @@
         <v>9</v>
       </c>
       <c r="M301" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="302" spans="8:13" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>9</v>
       </c>
       <c r="M302" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="303" spans="8:13" x14ac:dyDescent="0.25">
@@ -10052,7 +10052,7 @@
         <v>9</v>
       </c>
       <c r="M303" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="304" spans="8:13" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>9</v>
       </c>
       <c r="M304" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="305" spans="8:13" x14ac:dyDescent="0.25">
@@ -10092,7 +10092,7 @@
         <v>9</v>
       </c>
       <c r="M305" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="306" spans="8:13" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="M306" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="307" spans="8:13" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
         <v>9</v>
       </c>
       <c r="M307" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="308" spans="8:13" x14ac:dyDescent="0.25">
@@ -10152,7 +10152,7 @@
         <v>9</v>
       </c>
       <c r="M308" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="309" spans="8:13" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
         <v>9</v>
       </c>
       <c r="M309" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="310" spans="8:13" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
         <v>9</v>
       </c>
       <c r="M310" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="311" spans="8:13" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>9</v>
       </c>
       <c r="M311" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="312" spans="8:13" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>9</v>
       </c>
       <c r="M312" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="313" spans="8:13" x14ac:dyDescent="0.25">
@@ -10252,7 +10252,7 @@
         <v>9</v>
       </c>
       <c r="M313" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="314" spans="8:13" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>9</v>
       </c>
       <c r="M314" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="315" spans="8:13" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
         <v>9</v>
       </c>
       <c r="M315" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="316" spans="8:13" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
         <v>9</v>
       </c>
       <c r="M316" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="317" spans="8:13" x14ac:dyDescent="0.25">
@@ -10332,7 +10332,7 @@
         <v>9</v>
       </c>
       <c r="M317" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="318" spans="8:13" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>9</v>
       </c>
       <c r="M318" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="319" spans="8:13" x14ac:dyDescent="0.25">
@@ -10372,7 +10372,7 @@
         <v>9</v>
       </c>
       <c r="M319" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="320" spans="8:13" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="M320" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="321" spans="8:13" x14ac:dyDescent="0.25">
@@ -10412,7 +10412,7 @@
         <v>9</v>
       </c>
       <c r="M321" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="322" spans="8:13" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>9</v>
       </c>
       <c r="M322" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="323" spans="8:13" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>9</v>
       </c>
       <c r="M323" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="324" spans="8:13" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
         <v>9</v>
       </c>
       <c r="M324" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="325" spans="8:13" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
         <v>9</v>
       </c>
       <c r="M325" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="326" spans="8:13" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>9</v>
       </c>
       <c r="M326" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="327" spans="8:13" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
         <v>9</v>
       </c>
       <c r="M327" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="328" spans="8:13" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>9</v>
       </c>
       <c r="M328" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="329" spans="8:13" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="M329" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="330" spans="8:13" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>9</v>
       </c>
       <c r="M330" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="331" spans="8:13" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>9</v>
       </c>
       <c r="M331" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="332" spans="8:13" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
         <v>9</v>
       </c>
       <c r="M332" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="333" spans="8:13" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
         <v>13</v>
       </c>
       <c r="M333" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="334" spans="8:13" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>13</v>
       </c>
       <c r="M334" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="335" spans="8:13" x14ac:dyDescent="0.25">
@@ -10692,7 +10692,7 @@
         <v>13</v>
       </c>
       <c r="M335" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="336" spans="8:13" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>13</v>
       </c>
       <c r="M336" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="337" spans="8:13" x14ac:dyDescent="0.25">
@@ -10732,7 +10732,7 @@
         <v>13</v>
       </c>
       <c r="M337" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="338" spans="8:13" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>13</v>
       </c>
       <c r="M338" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="339" spans="8:13" x14ac:dyDescent="0.25">
@@ -10772,7 +10772,7 @@
         <v>13</v>
       </c>
       <c r="M339" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="340" spans="8:13" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>13</v>
       </c>
       <c r="M340" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="341" spans="8:13" x14ac:dyDescent="0.25">
@@ -10812,7 +10812,7 @@
         <v>13</v>
       </c>
       <c r="M341" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="342" spans="8:13" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>13</v>
       </c>
       <c r="M342" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="343" spans="8:13" x14ac:dyDescent="0.25">
@@ -10852,7 +10852,7 @@
         <v>13</v>
       </c>
       <c r="M343" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="344" spans="8:13" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>13</v>
       </c>
       <c r="M344" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="345" spans="8:13" x14ac:dyDescent="0.25">
@@ -10892,7 +10892,7 @@
         <v>13</v>
       </c>
       <c r="M345" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="346" spans="8:13" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>13</v>
       </c>
       <c r="M346" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="347" spans="8:13" x14ac:dyDescent="0.25">
@@ -10932,7 +10932,7 @@
         <v>13</v>
       </c>
       <c r="M347" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="348" spans="8:13" x14ac:dyDescent="0.25">
@@ -10952,7 +10952,7 @@
         <v>13</v>
       </c>
       <c r="M348" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="349" spans="8:13" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
         <v>13</v>
       </c>
       <c r="M349" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="350" spans="8:13" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
         <v>13</v>
       </c>
       <c r="M350" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="351" spans="8:13" x14ac:dyDescent="0.25">
@@ -11012,7 +11012,7 @@
         <v>13</v>
       </c>
       <c r="M351" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="352" spans="8:13" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>13</v>
       </c>
       <c r="M352" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="353" spans="8:13" x14ac:dyDescent="0.25">
@@ -11052,7 +11052,7 @@
         <v>13</v>
       </c>
       <c r="M353" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="354" spans="8:13" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>13</v>
       </c>
       <c r="M354" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="355" spans="8:13" x14ac:dyDescent="0.25">
@@ -11092,7 +11092,7 @@
         <v>13</v>
       </c>
       <c r="M355" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="356" spans="8:13" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
         <v>13</v>
       </c>
       <c r="M356" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="357" spans="8:13" x14ac:dyDescent="0.25">
@@ -11132,7 +11132,7 @@
         <v>13</v>
       </c>
       <c r="M357" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="358" spans="8:13" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>13</v>
       </c>
       <c r="M358" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="359" spans="8:13" x14ac:dyDescent="0.25">
@@ -11172,7 +11172,7 @@
         <v>13</v>
       </c>
       <c r="M359" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="360" spans="8:13" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>13</v>
       </c>
       <c r="M360" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="361" spans="8:13" x14ac:dyDescent="0.25">
@@ -11212,7 +11212,7 @@
         <v>13</v>
       </c>
       <c r="M361" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="362" spans="8:13" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>13</v>
       </c>
       <c r="M362" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="363" spans="8:13" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
         <v>13</v>
       </c>
       <c r="M363" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="364" spans="8:13" x14ac:dyDescent="0.25">
@@ -11272,7 +11272,7 @@
         <v>13</v>
       </c>
       <c r="M364" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="365" spans="8:13" x14ac:dyDescent="0.25">
@@ -11292,7 +11292,7 @@
         <v>13</v>
       </c>
       <c r="M365" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="366" spans="8:13" x14ac:dyDescent="0.25">
@@ -11312,7 +11312,7 @@
         <v>13</v>
       </c>
       <c r="M366" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="367" spans="8:13" x14ac:dyDescent="0.25">
@@ -11332,7 +11332,7 @@
         <v>13</v>
       </c>
       <c r="M367" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="368" spans="8:13" x14ac:dyDescent="0.25">
@@ -11352,7 +11352,7 @@
         <v>13</v>
       </c>
       <c r="M368" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="369" spans="8:13" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
         <v>13</v>
       </c>
       <c r="M369" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="370" spans="8:13" x14ac:dyDescent="0.25">
@@ -11392,7 +11392,7 @@
         <v>13</v>
       </c>
       <c r="M370" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="371" spans="8:13" x14ac:dyDescent="0.25">
@@ -11412,7 +11412,7 @@
         <v>13</v>
       </c>
       <c r="M371" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="372" spans="8:13" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
         <v>13</v>
       </c>
       <c r="M372" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="373" spans="8:13" x14ac:dyDescent="0.25">
@@ -11452,7 +11452,7 @@
         <v>13</v>
       </c>
       <c r="M373" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="374" spans="8:13" x14ac:dyDescent="0.25">
@@ -11472,7 +11472,7 @@
         <v>13</v>
       </c>
       <c r="M374" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="375" spans="8:13" x14ac:dyDescent="0.25">
@@ -11492,7 +11492,7 @@
         <v>13</v>
       </c>
       <c r="M375" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="376" spans="8:13" x14ac:dyDescent="0.25">
@@ -11512,7 +11512,7 @@
         <v>13</v>
       </c>
       <c r="M376" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="377" spans="8:13" x14ac:dyDescent="0.25">
@@ -11532,7 +11532,7 @@
         <v>13</v>
       </c>
       <c r="M377" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="378" spans="8:13" x14ac:dyDescent="0.25">
@@ -11552,7 +11552,7 @@
         <v>13</v>
       </c>
       <c r="M378" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="379" spans="8:13" x14ac:dyDescent="0.25">
@@ -11572,7 +11572,7 @@
         <v>13</v>
       </c>
       <c r="M379" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="380" spans="8:13" x14ac:dyDescent="0.25">
@@ -11592,7 +11592,7 @@
         <v>13</v>
       </c>
       <c r="M380" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="381" spans="8:13" x14ac:dyDescent="0.25">
@@ -11612,7 +11612,7 @@
         <v>13</v>
       </c>
       <c r="M381" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="382" spans="8:13" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
         <v>13</v>
       </c>
       <c r="M382" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="383" spans="8:13" x14ac:dyDescent="0.25">
@@ -11652,7 +11652,7 @@
         <v>13</v>
       </c>
       <c r="M383" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="384" spans="8:13" x14ac:dyDescent="0.25">
@@ -11672,7 +11672,7 @@
         <v>13</v>
       </c>
       <c r="M384" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="385" spans="8:13" x14ac:dyDescent="0.25">
@@ -11692,7 +11692,7 @@
         <v>13</v>
       </c>
       <c r="M385" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="386" spans="8:13" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
         <v>13</v>
       </c>
       <c r="M386" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="387" spans="8:13" x14ac:dyDescent="0.25">
@@ -11732,7 +11732,7 @@
         <v>13</v>
       </c>
       <c r="M387" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="388" spans="8:13" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>13</v>
       </c>
       <c r="M388" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="389" spans="8:13" x14ac:dyDescent="0.25">
@@ -11772,7 +11772,7 @@
         <v>13</v>
       </c>
       <c r="M389" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="390" spans="8:13" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
         <v>13</v>
       </c>
       <c r="M390" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="391" spans="8:13" x14ac:dyDescent="0.25">
@@ -11812,7 +11812,7 @@
         <v>13</v>
       </c>
       <c r="M391" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="392" spans="8:13" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
         <v>13</v>
       </c>
       <c r="M392" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="393" spans="8:13" x14ac:dyDescent="0.25">
@@ -11852,7 +11852,7 @@
         <v>13</v>
       </c>
       <c r="M393" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="394" spans="8:13" x14ac:dyDescent="0.25">
@@ -11872,7 +11872,7 @@
         <v>13</v>
       </c>
       <c r="M394" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="395" spans="8:13" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
         <v>13</v>
       </c>
       <c r="M395" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="396" spans="8:13" x14ac:dyDescent="0.25">
@@ -11912,7 +11912,7 @@
         <v>13</v>
       </c>
       <c r="M396" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="397" spans="8:13" x14ac:dyDescent="0.25">
@@ -11932,7 +11932,7 @@
         <v>13</v>
       </c>
       <c r="M397" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="398" spans="8:13" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
         <v>13</v>
       </c>
       <c r="M398" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="399" spans="8:13" x14ac:dyDescent="0.25">
@@ -11972,7 +11972,7 @@
         <v>13</v>
       </c>
       <c r="M399" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="400" spans="8:13" x14ac:dyDescent="0.25">
@@ -11992,7 +11992,7 @@
         <v>13</v>
       </c>
       <c r="M400" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="401" spans="8:13" x14ac:dyDescent="0.25">
@@ -12012,7 +12012,7 @@
         <v>13</v>
       </c>
       <c r="M401" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="402" spans="8:13" x14ac:dyDescent="0.25">
@@ -12032,7 +12032,7 @@
         <v>13</v>
       </c>
       <c r="M402" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="403" spans="8:13" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>13</v>
       </c>
       <c r="M403" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="404" spans="8:13" x14ac:dyDescent="0.25">
@@ -12072,7 +12072,7 @@
         <v>13</v>
       </c>
       <c r="M404" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="405" spans="8:13" x14ac:dyDescent="0.25">
@@ -12092,7 +12092,7 @@
         <v>13</v>
       </c>
       <c r="M405" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="406" spans="8:13" x14ac:dyDescent="0.25">
@@ -12112,7 +12112,7 @@
         <v>13</v>
       </c>
       <c r="M406" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="407" spans="8:13" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
         <v>13</v>
       </c>
       <c r="M407" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="408" spans="8:13" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
         <v>13</v>
       </c>
       <c r="M408" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="409" spans="8:13" x14ac:dyDescent="0.25">
@@ -12172,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="M409" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="410" spans="8:13" x14ac:dyDescent="0.25">
@@ -12192,7 +12192,7 @@
         <v>13</v>
       </c>
       <c r="M410" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="411" spans="8:13" x14ac:dyDescent="0.25">
@@ -12212,7 +12212,7 @@
         <v>13</v>
       </c>
       <c r="M411" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="412" spans="8:13" x14ac:dyDescent="0.25">
@@ -12232,7 +12232,7 @@
         <v>13</v>
       </c>
       <c r="M412" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="413" spans="8:13" x14ac:dyDescent="0.25">
@@ -12252,7 +12252,7 @@
         <v>13</v>
       </c>
       <c r="M413" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="414" spans="8:13" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
         <v>13</v>
       </c>
       <c r="M414" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="415" spans="8:13" x14ac:dyDescent="0.25">
@@ -12292,7 +12292,7 @@
         <v>13</v>
       </c>
       <c r="M415" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="416" spans="8:13" x14ac:dyDescent="0.25">
@@ -12312,7 +12312,7 @@
         <v>13</v>
       </c>
       <c r="M416" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="417" spans="8:13" x14ac:dyDescent="0.25">
@@ -12332,7 +12332,7 @@
         <v>13</v>
       </c>
       <c r="M417" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="418" spans="8:13" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>13</v>
       </c>
       <c r="M418" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="419" spans="8:13" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
         <v>13</v>
       </c>
       <c r="M419" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="420" spans="8:13" x14ac:dyDescent="0.25">
@@ -12392,7 +12392,7 @@
         <v>13</v>
       </c>
       <c r="M420" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="421" spans="8:13" x14ac:dyDescent="0.25">
@@ -12412,7 +12412,7 @@
         <v>13</v>
       </c>
       <c r="M421" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="422" spans="8:13" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
         <v>13</v>
       </c>
       <c r="M422" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="423" spans="8:13" x14ac:dyDescent="0.25">
@@ -12452,7 +12452,7 @@
         <v>13</v>
       </c>
       <c r="M423" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="424" spans="8:13" x14ac:dyDescent="0.25">
@@ -12472,7 +12472,7 @@
         <v>13</v>
       </c>
       <c r="M424" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="425" spans="8:13" x14ac:dyDescent="0.25">
@@ -12492,7 +12492,7 @@
         <v>13</v>
       </c>
       <c r="M425" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="426" spans="8:13" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
         <v>13</v>
       </c>
       <c r="M426" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="427" spans="8:13" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>13</v>
       </c>
       <c r="M427" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="428" spans="8:13" x14ac:dyDescent="0.25">
@@ -12552,7 +12552,7 @@
         <v>13</v>
       </c>
       <c r="M428" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="429" spans="8:13" x14ac:dyDescent="0.25">
@@ -12572,7 +12572,7 @@
         <v>13</v>
       </c>
       <c r="M429" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="430" spans="8:13" x14ac:dyDescent="0.25">
@@ -12592,7 +12592,7 @@
         <v>13</v>
       </c>
       <c r="M430" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="431" spans="8:13" x14ac:dyDescent="0.25">
@@ -12612,7 +12612,7 @@
         <v>13</v>
       </c>
       <c r="M431" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="432" spans="8:13" x14ac:dyDescent="0.25">
@@ -12632,7 +12632,7 @@
         <v>13</v>
       </c>
       <c r="M432" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="433" spans="8:13" x14ac:dyDescent="0.25">
@@ -12652,7 +12652,7 @@
         <v>13</v>
       </c>
       <c r="M433" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="434" spans="8:13" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
         <v>13</v>
       </c>
       <c r="M434" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="435" spans="8:13" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
         <v>13</v>
       </c>
       <c r="M435" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="436" spans="8:13" x14ac:dyDescent="0.25">
@@ -12712,7 +12712,7 @@
         <v>13</v>
       </c>
       <c r="M436" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="437" spans="8:13" x14ac:dyDescent="0.25">
@@ -12732,7 +12732,7 @@
         <v>13</v>
       </c>
       <c r="M437" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="438" spans="8:13" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>13</v>
       </c>
       <c r="M438" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="439" spans="8:13" x14ac:dyDescent="0.25">
@@ -12772,7 +12772,7 @@
         <v>13</v>
       </c>
       <c r="M439" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="440" spans="8:13" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
         <v>13</v>
       </c>
       <c r="M440" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="441" spans="8:13" x14ac:dyDescent="0.25">
@@ -12812,7 +12812,7 @@
         <v>13</v>
       </c>
       <c r="M441" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="442" spans="8:13" x14ac:dyDescent="0.25">
@@ -12832,7 +12832,7 @@
         <v>13</v>
       </c>
       <c r="M442" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="443" spans="8:13" x14ac:dyDescent="0.25">
@@ -12852,7 +12852,7 @@
         <v>9</v>
       </c>
       <c r="M443" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="444" spans="8:13" x14ac:dyDescent="0.25">
@@ -12872,7 +12872,7 @@
         <v>9</v>
       </c>
       <c r="M444" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="445" spans="8:13" x14ac:dyDescent="0.25">
@@ -12892,7 +12892,7 @@
         <v>9</v>
       </c>
       <c r="M445" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="446" spans="8:13" x14ac:dyDescent="0.25">
@@ -12912,7 +12912,7 @@
         <v>9</v>
       </c>
       <c r="M446" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="447" spans="8:13" x14ac:dyDescent="0.25">
@@ -12932,7 +12932,7 @@
         <v>9</v>
       </c>
       <c r="M447" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="448" spans="8:13" x14ac:dyDescent="0.25">
@@ -12952,7 +12952,7 @@
         <v>9</v>
       </c>
       <c r="M448" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="449" spans="8:13" x14ac:dyDescent="0.25">
@@ -12972,7 +12972,7 @@
         <v>9</v>
       </c>
       <c r="M449" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="450" spans="8:13" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>9</v>
       </c>
       <c r="M450" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="451" spans="8:13" x14ac:dyDescent="0.25">
@@ -13012,7 +13012,7 @@
         <v>9</v>
       </c>
       <c r="M451" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="452" spans="8:13" x14ac:dyDescent="0.25">
@@ -13032,7 +13032,7 @@
         <v>9</v>
       </c>
       <c r="M452" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="453" spans="8:13" x14ac:dyDescent="0.25">
@@ -13052,7 +13052,7 @@
         <v>9</v>
       </c>
       <c r="M453" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="454" spans="8:13" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
         <v>9</v>
       </c>
       <c r="M454" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="455" spans="8:13" x14ac:dyDescent="0.25">
@@ -13092,7 +13092,7 @@
         <v>9</v>
       </c>
       <c r="M455" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="456" spans="8:13" x14ac:dyDescent="0.25">
@@ -13112,7 +13112,7 @@
         <v>9</v>
       </c>
       <c r="M456" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="457" spans="8:13" x14ac:dyDescent="0.25">
@@ -13132,7 +13132,7 @@
         <v>9</v>
       </c>
       <c r="M457" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="458" spans="8:13" x14ac:dyDescent="0.25">
@@ -13152,7 +13152,7 @@
         <v>9</v>
       </c>
       <c r="M458" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="459" spans="8:13" x14ac:dyDescent="0.25">
@@ -13172,7 +13172,7 @@
         <v>9</v>
       </c>
       <c r="M459" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="460" spans="8:13" x14ac:dyDescent="0.25">
@@ -13192,7 +13192,7 @@
         <v>9</v>
       </c>
       <c r="M460" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="461" spans="8:13" x14ac:dyDescent="0.25">
@@ -13212,7 +13212,7 @@
         <v>9</v>
       </c>
       <c r="M461" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="462" spans="8:13" x14ac:dyDescent="0.25">
@@ -13232,7 +13232,7 @@
         <v>9</v>
       </c>
       <c r="M462" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="463" spans="8:13" x14ac:dyDescent="0.25">
@@ -13252,7 +13252,7 @@
         <v>9</v>
       </c>
       <c r="M463" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="464" spans="8:13" x14ac:dyDescent="0.25">
@@ -13272,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="M464" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="465" spans="8:13" x14ac:dyDescent="0.25">
@@ -13292,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="M465" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="466" spans="8:13" x14ac:dyDescent="0.25">
@@ -13312,7 +13312,7 @@
         <v>9</v>
       </c>
       <c r="M466" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="467" spans="8:13" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>9</v>
       </c>
       <c r="M467" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="468" spans="8:13" x14ac:dyDescent="0.25">
@@ -13352,7 +13352,7 @@
         <v>9</v>
       </c>
       <c r="M468" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="469" spans="8:13" x14ac:dyDescent="0.25">
@@ -13372,7 +13372,7 @@
         <v>9</v>
       </c>
       <c r="M469" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="470" spans="8:13" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
         <v>9</v>
       </c>
       <c r="M470" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="471" spans="8:13" x14ac:dyDescent="0.25">
@@ -13412,7 +13412,7 @@
         <v>9</v>
       </c>
       <c r="M471" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="472" spans="8:13" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <v>9</v>
       </c>
       <c r="M472" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="473" spans="8:13" x14ac:dyDescent="0.25">
@@ -13452,7 +13452,7 @@
         <v>9</v>
       </c>
       <c r="M473" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="474" spans="8:13" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
         <v>9</v>
       </c>
       <c r="M474" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="475" spans="8:13" x14ac:dyDescent="0.25">
@@ -13492,7 +13492,7 @@
         <v>9</v>
       </c>
       <c r="M475" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="476" spans="8:13" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
         <v>9</v>
       </c>
       <c r="M476" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="477" spans="8:13" x14ac:dyDescent="0.25">
@@ -13532,7 +13532,7 @@
         <v>9</v>
       </c>
       <c r="M477" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="478" spans="8:13" x14ac:dyDescent="0.25">
@@ -13552,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="M478" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="479" spans="8:13" x14ac:dyDescent="0.25">
@@ -13572,7 +13572,7 @@
         <v>9</v>
       </c>
       <c r="M479" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="480" spans="8:13" x14ac:dyDescent="0.25">
@@ -13592,7 +13592,7 @@
         <v>9</v>
       </c>
       <c r="M480" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="481" spans="8:13" x14ac:dyDescent="0.25">
@@ -13612,7 +13612,7 @@
         <v>9</v>
       </c>
       <c r="M481" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="482" spans="8:13" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>9</v>
       </c>
       <c r="M482" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="483" spans="8:13" x14ac:dyDescent="0.25">
@@ -13652,7 +13652,7 @@
         <v>9</v>
       </c>
       <c r="M483" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="484" spans="8:13" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>9</v>
       </c>
       <c r="M484" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="485" spans="8:13" x14ac:dyDescent="0.25">
@@ -13692,7 +13692,7 @@
         <v>9</v>
       </c>
       <c r="M485" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="486" spans="8:13" x14ac:dyDescent="0.25">
@@ -13712,7 +13712,7 @@
         <v>9</v>
       </c>
       <c r="M486" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="487" spans="8:13" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>9</v>
       </c>
       <c r="M487" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="488" spans="8:13" x14ac:dyDescent="0.25">
@@ -13752,7 +13752,7 @@
         <v>9</v>
       </c>
       <c r="M488" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="489" spans="8:13" x14ac:dyDescent="0.25">
@@ -13772,7 +13772,7 @@
         <v>9</v>
       </c>
       <c r="M489" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="490" spans="8:13" x14ac:dyDescent="0.25">
@@ -13792,7 +13792,7 @@
         <v>9</v>
       </c>
       <c r="M490" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="491" spans="8:13" x14ac:dyDescent="0.25">
@@ -13812,7 +13812,7 @@
         <v>9</v>
       </c>
       <c r="M491" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="492" spans="8:13" x14ac:dyDescent="0.25">
@@ -13832,7 +13832,7 @@
         <v>9</v>
       </c>
       <c r="M492" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="493" spans="8:13" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
         <v>9</v>
       </c>
       <c r="M493" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="494" spans="8:13" x14ac:dyDescent="0.25">
@@ -13872,7 +13872,7 @@
         <v>9</v>
       </c>
       <c r="M494" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="495" spans="8:13" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
         <v>9</v>
       </c>
       <c r="M495" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="496" spans="8:13" x14ac:dyDescent="0.25">
@@ -13912,7 +13912,7 @@
         <v>9</v>
       </c>
       <c r="M496" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="497" spans="8:13" x14ac:dyDescent="0.25">
@@ -13932,7 +13932,7 @@
         <v>9</v>
       </c>
       <c r="M497" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="498" spans="8:13" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>9</v>
       </c>
       <c r="M498" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="499" spans="8:13" x14ac:dyDescent="0.25">
@@ -13972,7 +13972,7 @@
         <v>9</v>
       </c>
       <c r="M499" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="500" spans="8:13" x14ac:dyDescent="0.25">
@@ -13992,7 +13992,7 @@
         <v>9</v>
       </c>
       <c r="M500" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="501" spans="8:13" x14ac:dyDescent="0.25">
@@ -14012,7 +14012,7 @@
         <v>9</v>
       </c>
       <c r="M501" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="502" spans="8:13" x14ac:dyDescent="0.25">
@@ -14032,7 +14032,7 @@
         <v>9</v>
       </c>
       <c r="M502" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="503" spans="8:13" x14ac:dyDescent="0.25">
@@ -14052,7 +14052,7 @@
         <v>9</v>
       </c>
       <c r="M503" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="504" spans="8:13" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>9</v>
       </c>
       <c r="M504" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="505" spans="8:13" x14ac:dyDescent="0.25">
@@ -14092,7 +14092,7 @@
         <v>9</v>
       </c>
       <c r="M505" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="506" spans="8:13" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>9</v>
       </c>
       <c r="M506" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="507" spans="8:13" x14ac:dyDescent="0.25">
@@ -14132,7 +14132,7 @@
         <v>9</v>
       </c>
       <c r="M507" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="508" spans="8:13" x14ac:dyDescent="0.25">
@@ -14152,7 +14152,7 @@
         <v>9</v>
       </c>
       <c r="M508" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="509" spans="8:13" x14ac:dyDescent="0.25">
@@ -14172,7 +14172,7 @@
         <v>9</v>
       </c>
       <c r="M509" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="510" spans="8:13" x14ac:dyDescent="0.25">
@@ -14192,7 +14192,7 @@
         <v>9</v>
       </c>
       <c r="M510" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="511" spans="8:13" x14ac:dyDescent="0.25">
@@ -14212,7 +14212,7 @@
         <v>9</v>
       </c>
       <c r="M511" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="512" spans="8:13" x14ac:dyDescent="0.25">
@@ -14232,7 +14232,7 @@
         <v>9</v>
       </c>
       <c r="M512" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="513" spans="8:13" x14ac:dyDescent="0.25">
@@ -14252,7 +14252,7 @@
         <v>9</v>
       </c>
       <c r="M513" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="514" spans="8:13" x14ac:dyDescent="0.25">
@@ -14272,7 +14272,7 @@
         <v>9</v>
       </c>
       <c r="M514" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="515" spans="8:13" x14ac:dyDescent="0.25">
@@ -14292,7 +14292,7 @@
         <v>9</v>
       </c>
       <c r="M515" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="516" spans="8:13" x14ac:dyDescent="0.25">
@@ -14312,7 +14312,7 @@
         <v>9</v>
       </c>
       <c r="M516" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="517" spans="8:13" x14ac:dyDescent="0.25">
@@ -14332,7 +14332,7 @@
         <v>9</v>
       </c>
       <c r="M517" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="518" spans="8:13" x14ac:dyDescent="0.25">
@@ -14352,7 +14352,7 @@
         <v>9</v>
       </c>
       <c r="M518" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="519" spans="8:13" x14ac:dyDescent="0.25">
@@ -14372,7 +14372,7 @@
         <v>9</v>
       </c>
       <c r="M519" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="520" spans="8:13" x14ac:dyDescent="0.25">
@@ -14392,7 +14392,7 @@
         <v>9</v>
       </c>
       <c r="M520" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="521" spans="8:13" x14ac:dyDescent="0.25">
@@ -14412,7 +14412,7 @@
         <v>9</v>
       </c>
       <c r="M521" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="522" spans="8:13" x14ac:dyDescent="0.25">
@@ -14432,7 +14432,7 @@
         <v>9</v>
       </c>
       <c r="M522" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="523" spans="8:13" x14ac:dyDescent="0.25">
@@ -14452,7 +14452,7 @@
         <v>9</v>
       </c>
       <c r="M523" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="524" spans="8:13" x14ac:dyDescent="0.25">
@@ -14472,7 +14472,7 @@
         <v>9</v>
       </c>
       <c r="M524" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="525" spans="8:13" x14ac:dyDescent="0.25">
@@ -14492,7 +14492,7 @@
         <v>9</v>
       </c>
       <c r="M525" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="526" spans="8:13" x14ac:dyDescent="0.25">
@@ -14512,7 +14512,7 @@
         <v>9</v>
       </c>
       <c r="M526" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="527" spans="8:13" x14ac:dyDescent="0.25">
@@ -14532,7 +14532,7 @@
         <v>9</v>
       </c>
       <c r="M527" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="528" spans="8:13" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>9</v>
       </c>
       <c r="M528" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="529" spans="8:13" x14ac:dyDescent="0.25">
@@ -14572,7 +14572,7 @@
         <v>9</v>
       </c>
       <c r="M529" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="530" spans="8:13" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>9</v>
       </c>
       <c r="M530" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="531" spans="8:13" x14ac:dyDescent="0.25">
@@ -14612,7 +14612,7 @@
         <v>9</v>
       </c>
       <c r="M531" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="532" spans="8:13" x14ac:dyDescent="0.25">
@@ -14632,7 +14632,7 @@
         <v>9</v>
       </c>
       <c r="M532" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="533" spans="8:13" x14ac:dyDescent="0.25">
@@ -14652,7 +14652,7 @@
         <v>9</v>
       </c>
       <c r="M533" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="534" spans="8:13" x14ac:dyDescent="0.25">
@@ -14672,7 +14672,7 @@
         <v>9</v>
       </c>
       <c r="M534" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="535" spans="8:13" x14ac:dyDescent="0.25">
@@ -14692,7 +14692,7 @@
         <v>9</v>
       </c>
       <c r="M535" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="536" spans="8:13" x14ac:dyDescent="0.25">
@@ -14712,7 +14712,7 @@
         <v>9</v>
       </c>
       <c r="M536" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="537" spans="8:13" x14ac:dyDescent="0.25">
@@ -14732,7 +14732,7 @@
         <v>9</v>
       </c>
       <c r="M537" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="538" spans="8:13" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>9</v>
       </c>
       <c r="M538" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="539" spans="8:13" x14ac:dyDescent="0.25">
@@ -14772,7 +14772,7 @@
         <v>9</v>
       </c>
       <c r="M539" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="540" spans="8:13" x14ac:dyDescent="0.25">
@@ -14792,7 +14792,7 @@
         <v>9</v>
       </c>
       <c r="M540" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="541" spans="8:13" x14ac:dyDescent="0.25">
@@ -14812,7 +14812,7 @@
         <v>9</v>
       </c>
       <c r="M541" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="542" spans="8:13" x14ac:dyDescent="0.25">
@@ -14832,7 +14832,7 @@
         <v>9</v>
       </c>
       <c r="M542" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="543" spans="8:13" x14ac:dyDescent="0.25">
@@ -14852,7 +14852,7 @@
         <v>9</v>
       </c>
       <c r="M543" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="544" spans="8:13" x14ac:dyDescent="0.25">
@@ -14872,7 +14872,7 @@
         <v>9</v>
       </c>
       <c r="M544" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="545" spans="8:13" x14ac:dyDescent="0.25">
@@ -14892,7 +14892,7 @@
         <v>9</v>
       </c>
       <c r="M545" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="546" spans="8:13" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
         <v>9</v>
       </c>
       <c r="M546" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="547" spans="8:13" x14ac:dyDescent="0.25">
@@ -14932,7 +14932,7 @@
         <v>9</v>
       </c>
       <c r="M547" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="548" spans="8:13" x14ac:dyDescent="0.25">
@@ -14952,7 +14952,7 @@
         <v>9</v>
       </c>
       <c r="M548" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="549" spans="8:13" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
         <v>9</v>
       </c>
       <c r="M549" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="550" spans="8:13" x14ac:dyDescent="0.25">
@@ -14992,7 +14992,7 @@
         <v>9</v>
       </c>
       <c r="M550" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="551" spans="8:13" x14ac:dyDescent="0.25">
@@ -15012,7 +15012,7 @@
         <v>9</v>
       </c>
       <c r="M551" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="552" spans="8:13" x14ac:dyDescent="0.25">
@@ -15032,7 +15032,7 @@
         <v>9</v>
       </c>
       <c r="M552" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="553" spans="8:13" x14ac:dyDescent="0.25">
@@ -15052,7 +15052,7 @@
         <v>13</v>
       </c>
       <c r="M553" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="554" spans="8:13" x14ac:dyDescent="0.25">
@@ -15072,7 +15072,7 @@
         <v>13</v>
       </c>
       <c r="M554" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="555" spans="8:13" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>13</v>
       </c>
       <c r="M555" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="556" spans="8:13" x14ac:dyDescent="0.25">
@@ -15112,7 +15112,7 @@
         <v>13</v>
       </c>
       <c r="M556" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="557" spans="8:13" x14ac:dyDescent="0.25">
@@ -15132,7 +15132,7 @@
         <v>13</v>
       </c>
       <c r="M557" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="558" spans="8:13" x14ac:dyDescent="0.25">
@@ -15152,7 +15152,7 @@
         <v>13</v>
       </c>
       <c r="M558" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="559" spans="8:13" x14ac:dyDescent="0.25">
@@ -15172,7 +15172,7 @@
         <v>13</v>
       </c>
       <c r="M559" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="560" spans="8:13" x14ac:dyDescent="0.25">
@@ -15192,7 +15192,7 @@
         <v>13</v>
       </c>
       <c r="M560" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="561" spans="8:13" x14ac:dyDescent="0.25">
@@ -15212,7 +15212,7 @@
         <v>13</v>
       </c>
       <c r="M561" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="562" spans="8:13" x14ac:dyDescent="0.25">
@@ -15232,7 +15232,7 @@
         <v>13</v>
       </c>
       <c r="M562" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="563" spans="8:13" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
         <v>13</v>
       </c>
       <c r="M563" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="564" spans="8:13" x14ac:dyDescent="0.25">
@@ -15272,7 +15272,7 @@
         <v>13</v>
       </c>
       <c r="M564" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="565" spans="8:13" x14ac:dyDescent="0.25">
@@ -15292,7 +15292,7 @@
         <v>13</v>
       </c>
       <c r="M565" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="566" spans="8:13" x14ac:dyDescent="0.25">
@@ -15312,7 +15312,7 @@
         <v>13</v>
       </c>
       <c r="M566" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="567" spans="8:13" x14ac:dyDescent="0.25">
@@ -15332,7 +15332,7 @@
         <v>13</v>
       </c>
       <c r="M567" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="568" spans="8:13" x14ac:dyDescent="0.25">
@@ -15352,7 +15352,7 @@
         <v>13</v>
       </c>
       <c r="M568" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="569" spans="8:13" x14ac:dyDescent="0.25">
@@ -15372,7 +15372,7 @@
         <v>13</v>
       </c>
       <c r="M569" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="570" spans="8:13" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>13</v>
       </c>
       <c r="M570" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="571" spans="8:13" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>13</v>
       </c>
       <c r="M571" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="572" spans="8:13" x14ac:dyDescent="0.25">
@@ -15432,7 +15432,7 @@
         <v>13</v>
       </c>
       <c r="M572" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="573" spans="8:13" x14ac:dyDescent="0.25">
@@ -15452,7 +15452,7 @@
         <v>13</v>
       </c>
       <c r="M573" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="574" spans="8:13" x14ac:dyDescent="0.25">
@@ -15472,7 +15472,7 @@
         <v>13</v>
       </c>
       <c r="M574" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="575" spans="8:13" x14ac:dyDescent="0.25">
@@ -15492,7 +15492,7 @@
         <v>13</v>
       </c>
       <c r="M575" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="576" spans="8:13" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>13</v>
       </c>
       <c r="M576" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="577" spans="8:13" x14ac:dyDescent="0.25">
@@ -15532,7 +15532,7 @@
         <v>13</v>
       </c>
       <c r="M577" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="578" spans="8:13" x14ac:dyDescent="0.25">
@@ -15552,7 +15552,7 @@
         <v>13</v>
       </c>
       <c r="M578" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="579" spans="8:13" x14ac:dyDescent="0.25">
@@ -15572,7 +15572,7 @@
         <v>13</v>
       </c>
       <c r="M579" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="580" spans="8:13" x14ac:dyDescent="0.25">
@@ -15592,7 +15592,7 @@
         <v>13</v>
       </c>
       <c r="M580" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="581" spans="8:13" x14ac:dyDescent="0.25">
@@ -15612,7 +15612,7 @@
         <v>13</v>
       </c>
       <c r="M581" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="582" spans="8:13" x14ac:dyDescent="0.25">
@@ -15632,7 +15632,7 @@
         <v>13</v>
       </c>
       <c r="M582" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="583" spans="8:13" x14ac:dyDescent="0.25">
@@ -15652,7 +15652,7 @@
         <v>13</v>
       </c>
       <c r="M583" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="584" spans="8:13" x14ac:dyDescent="0.25">
@@ -15672,7 +15672,7 @@
         <v>13</v>
       </c>
       <c r="M584" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="585" spans="8:13" x14ac:dyDescent="0.25">
@@ -15692,7 +15692,7 @@
         <v>13</v>
       </c>
       <c r="M585" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="586" spans="8:13" x14ac:dyDescent="0.25">
@@ -15712,7 +15712,7 @@
         <v>13</v>
       </c>
       <c r="M586" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="587" spans="8:13" x14ac:dyDescent="0.25">
@@ -15732,7 +15732,7 @@
         <v>13</v>
       </c>
       <c r="M587" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="588" spans="8:13" x14ac:dyDescent="0.25">
@@ -15752,7 +15752,7 @@
         <v>13</v>
       </c>
       <c r="M588" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="589" spans="8:13" x14ac:dyDescent="0.25">
@@ -15772,7 +15772,7 @@
         <v>13</v>
       </c>
       <c r="M589" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="590" spans="8:13" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
         <v>13</v>
       </c>
       <c r="M590" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="591" spans="8:13" x14ac:dyDescent="0.25">
@@ -15812,7 +15812,7 @@
         <v>13</v>
       </c>
       <c r="M591" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="592" spans="8:13" x14ac:dyDescent="0.25">
@@ -15832,7 +15832,7 @@
         <v>13</v>
       </c>
       <c r="M592" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="593" spans="8:13" x14ac:dyDescent="0.25">
@@ -15852,7 +15852,7 @@
         <v>13</v>
       </c>
       <c r="M593" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="594" spans="8:13" x14ac:dyDescent="0.25">
@@ -15872,7 +15872,7 @@
         <v>13</v>
       </c>
       <c r="M594" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="595" spans="8:13" x14ac:dyDescent="0.25">
@@ -15892,7 +15892,7 @@
         <v>13</v>
       </c>
       <c r="M595" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="596" spans="8:13" x14ac:dyDescent="0.25">
@@ -15912,7 +15912,7 @@
         <v>13</v>
       </c>
       <c r="M596" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="597" spans="8:13" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
         <v>13</v>
       </c>
       <c r="M597" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="598" spans="8:13" x14ac:dyDescent="0.25">
@@ -15952,7 +15952,7 @@
         <v>13</v>
       </c>
       <c r="M598" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="599" spans="8:13" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>13</v>
       </c>
       <c r="M599" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="600" spans="8:13" x14ac:dyDescent="0.25">
@@ -15992,7 +15992,7 @@
         <v>13</v>
       </c>
       <c r="M600" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="601" spans="8:13" x14ac:dyDescent="0.25">
@@ -16012,7 +16012,7 @@
         <v>13</v>
       </c>
       <c r="M601" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="602" spans="8:13" x14ac:dyDescent="0.25">
@@ -16032,7 +16032,7 @@
         <v>13</v>
       </c>
       <c r="M602" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="603" spans="8:13" x14ac:dyDescent="0.25">
@@ -16052,7 +16052,7 @@
         <v>13</v>
       </c>
       <c r="M603" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="604" spans="8:13" x14ac:dyDescent="0.25">
@@ -16072,7 +16072,7 @@
         <v>13</v>
       </c>
       <c r="M604" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="605" spans="8:13" x14ac:dyDescent="0.25">
@@ -16092,7 +16092,7 @@
         <v>13</v>
       </c>
       <c r="M605" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="606" spans="8:13" x14ac:dyDescent="0.25">
@@ -16112,7 +16112,7 @@
         <v>13</v>
       </c>
       <c r="M606" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="607" spans="8:13" x14ac:dyDescent="0.25">
@@ -16132,7 +16132,7 @@
         <v>13</v>
       </c>
       <c r="M607" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="608" spans="8:13" x14ac:dyDescent="0.25">
@@ -16152,7 +16152,7 @@
         <v>13</v>
       </c>
       <c r="M608" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="609" spans="8:13" x14ac:dyDescent="0.25">
@@ -16172,7 +16172,7 @@
         <v>13</v>
       </c>
       <c r="M609" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="610" spans="8:13" x14ac:dyDescent="0.25">
@@ -16192,7 +16192,7 @@
         <v>13</v>
       </c>
       <c r="M610" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="611" spans="8:13" x14ac:dyDescent="0.25">
@@ -16212,7 +16212,7 @@
         <v>13</v>
       </c>
       <c r="M611" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="612" spans="8:13" x14ac:dyDescent="0.25">
@@ -16232,7 +16232,7 @@
         <v>13</v>
       </c>
       <c r="M612" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="613" spans="8:13" x14ac:dyDescent="0.25">
@@ -16252,7 +16252,7 @@
         <v>13</v>
       </c>
       <c r="M613" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="614" spans="8:13" x14ac:dyDescent="0.25">
@@ -16272,7 +16272,7 @@
         <v>13</v>
       </c>
       <c r="M614" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="615" spans="8:13" x14ac:dyDescent="0.25">
@@ -16292,7 +16292,7 @@
         <v>13</v>
       </c>
       <c r="M615" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="616" spans="8:13" x14ac:dyDescent="0.25">
@@ -16312,7 +16312,7 @@
         <v>13</v>
       </c>
       <c r="M616" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="617" spans="8:13" x14ac:dyDescent="0.25">
@@ -16332,7 +16332,7 @@
         <v>13</v>
       </c>
       <c r="M617" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="618" spans="8:13" x14ac:dyDescent="0.25">
@@ -16352,7 +16352,7 @@
         <v>13</v>
       </c>
       <c r="M618" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="619" spans="8:13" x14ac:dyDescent="0.25">
@@ -16372,7 +16372,7 @@
         <v>13</v>
       </c>
       <c r="M619" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="620" spans="8:13" x14ac:dyDescent="0.25">
@@ -16392,7 +16392,7 @@
         <v>13</v>
       </c>
       <c r="M620" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="621" spans="8:13" x14ac:dyDescent="0.25">
@@ -16412,7 +16412,7 @@
         <v>13</v>
       </c>
       <c r="M621" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="622" spans="8:13" x14ac:dyDescent="0.25">
@@ -16432,7 +16432,7 @@
         <v>13</v>
       </c>
       <c r="M622" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="623" spans="8:13" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
         <v>13</v>
       </c>
       <c r="M623" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="624" spans="8:13" x14ac:dyDescent="0.25">
@@ -16472,7 +16472,7 @@
         <v>13</v>
       </c>
       <c r="M624" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="625" spans="8:13" x14ac:dyDescent="0.25">
@@ -16492,7 +16492,7 @@
         <v>13</v>
       </c>
       <c r="M625" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="626" spans="8:13" x14ac:dyDescent="0.25">
@@ -16512,7 +16512,7 @@
         <v>13</v>
       </c>
       <c r="M626" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="627" spans="8:13" x14ac:dyDescent="0.25">
@@ -16532,7 +16532,7 @@
         <v>13</v>
       </c>
       <c r="M627" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="628" spans="8:13" x14ac:dyDescent="0.25">
@@ -16552,7 +16552,7 @@
         <v>13</v>
       </c>
       <c r="M628" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="629" spans="8:13" x14ac:dyDescent="0.25">
@@ -16572,7 +16572,7 @@
         <v>13</v>
       </c>
       <c r="M629" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="630" spans="8:13" x14ac:dyDescent="0.25">
@@ -16592,7 +16592,7 @@
         <v>13</v>
       </c>
       <c r="M630" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="631" spans="8:13" x14ac:dyDescent="0.25">
@@ -16612,7 +16612,7 @@
         <v>13</v>
       </c>
       <c r="M631" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="632" spans="8:13" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
         <v>13</v>
       </c>
       <c r="M632" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="633" spans="8:13" x14ac:dyDescent="0.25">
@@ -16652,7 +16652,7 @@
         <v>13</v>
       </c>
       <c r="M633" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="634" spans="8:13" x14ac:dyDescent="0.25">
@@ -16672,7 +16672,7 @@
         <v>13</v>
       </c>
       <c r="M634" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="635" spans="8:13" x14ac:dyDescent="0.25">
@@ -16692,7 +16692,7 @@
         <v>13</v>
       </c>
       <c r="M635" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="636" spans="8:13" x14ac:dyDescent="0.25">
@@ -16712,7 +16712,7 @@
         <v>13</v>
       </c>
       <c r="M636" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="637" spans="8:13" x14ac:dyDescent="0.25">
@@ -16732,7 +16732,7 @@
         <v>13</v>
       </c>
       <c r="M637" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="638" spans="8:13" x14ac:dyDescent="0.25">
@@ -16752,7 +16752,7 @@
         <v>13</v>
       </c>
       <c r="M638" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="639" spans="8:13" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,7 @@
         <v>13</v>
       </c>
       <c r="M639" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="640" spans="8:13" x14ac:dyDescent="0.25">
@@ -16792,7 +16792,7 @@
         <v>13</v>
       </c>
       <c r="M640" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="641" spans="8:13" x14ac:dyDescent="0.25">
@@ -16812,7 +16812,7 @@
         <v>13</v>
       </c>
       <c r="M641" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="642" spans="8:13" x14ac:dyDescent="0.25">
@@ -16832,7 +16832,7 @@
         <v>13</v>
       </c>
       <c r="M642" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="643" spans="8:13" x14ac:dyDescent="0.25">
@@ -16852,7 +16852,7 @@
         <v>13</v>
       </c>
       <c r="M643" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="644" spans="8:13" x14ac:dyDescent="0.25">
@@ -16872,7 +16872,7 @@
         <v>13</v>
       </c>
       <c r="M644" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="645" spans="8:13" x14ac:dyDescent="0.25">
@@ -16892,7 +16892,7 @@
         <v>13</v>
       </c>
       <c r="M645" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="646" spans="8:13" x14ac:dyDescent="0.25">
@@ -16912,7 +16912,7 @@
         <v>13</v>
       </c>
       <c r="M646" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="647" spans="8:13" x14ac:dyDescent="0.25">
@@ -16932,7 +16932,7 @@
         <v>13</v>
       </c>
       <c r="M647" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="648" spans="8:13" x14ac:dyDescent="0.25">
@@ -16952,7 +16952,7 @@
         <v>13</v>
       </c>
       <c r="M648" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="649" spans="8:13" x14ac:dyDescent="0.25">
@@ -16972,7 +16972,7 @@
         <v>13</v>
       </c>
       <c r="M649" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="650" spans="8:13" x14ac:dyDescent="0.25">
@@ -16992,7 +16992,7 @@
         <v>13</v>
       </c>
       <c r="M650" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="651" spans="8:13" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
         <v>13</v>
       </c>
       <c r="M651" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="652" spans="8:13" x14ac:dyDescent="0.25">
@@ -17032,7 +17032,7 @@
         <v>13</v>
       </c>
       <c r="M652" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="653" spans="8:13" x14ac:dyDescent="0.25">
@@ -17052,7 +17052,7 @@
         <v>13</v>
       </c>
       <c r="M653" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="654" spans="8:13" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>13</v>
       </c>
       <c r="M654" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="655" spans="8:13" x14ac:dyDescent="0.25">
@@ -17092,7 +17092,7 @@
         <v>13</v>
       </c>
       <c r="M655" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="656" spans="8:13" x14ac:dyDescent="0.25">
@@ -17112,7 +17112,7 @@
         <v>13</v>
       </c>
       <c r="M656" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="657" spans="8:13" x14ac:dyDescent="0.25">
@@ -17132,7 +17132,7 @@
         <v>13</v>
       </c>
       <c r="M657" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="658" spans="8:13" x14ac:dyDescent="0.25">
@@ -17152,7 +17152,7 @@
         <v>13</v>
       </c>
       <c r="M658" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="659" spans="8:13" x14ac:dyDescent="0.25">
@@ -17172,7 +17172,7 @@
         <v>13</v>
       </c>
       <c r="M659" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="660" spans="8:13" x14ac:dyDescent="0.25">
@@ -17192,7 +17192,7 @@
         <v>13</v>
       </c>
       <c r="M660" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="661" spans="8:13" x14ac:dyDescent="0.25">
@@ -17212,7 +17212,7 @@
         <v>13</v>
       </c>
       <c r="M661" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="662" spans="8:13" x14ac:dyDescent="0.25">
@@ -17232,7 +17232,7 @@
         <v>13</v>
       </c>
       <c r="M662" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="663" spans="8:13" x14ac:dyDescent="0.25">
@@ -17252,7 +17252,7 @@
         <v>9</v>
       </c>
       <c r="M663" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="664" spans="8:13" x14ac:dyDescent="0.25">
@@ -17272,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="M664" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="665" spans="8:13" x14ac:dyDescent="0.25">
@@ -17292,7 +17292,7 @@
         <v>9</v>
       </c>
       <c r="M665" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="666" spans="8:13" x14ac:dyDescent="0.25">
@@ -17312,7 +17312,7 @@
         <v>9</v>
       </c>
       <c r="M666" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="667" spans="8:13" x14ac:dyDescent="0.25">
@@ -17332,7 +17332,7 @@
         <v>9</v>
       </c>
       <c r="M667" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="668" spans="8:13" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>9</v>
       </c>
       <c r="M668" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="669" spans="8:13" x14ac:dyDescent="0.25">
@@ -17372,7 +17372,7 @@
         <v>9</v>
       </c>
       <c r="M669" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="670" spans="8:13" x14ac:dyDescent="0.25">
@@ -17392,7 +17392,7 @@
         <v>9</v>
       </c>
       <c r="M670" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="671" spans="8:13" x14ac:dyDescent="0.25">
@@ -17412,7 +17412,7 @@
         <v>9</v>
       </c>
       <c r="M671" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="672" spans="8:13" x14ac:dyDescent="0.25">
@@ -17432,7 +17432,7 @@
         <v>9</v>
       </c>
       <c r="M672" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="673" spans="8:13" x14ac:dyDescent="0.25">
@@ -17452,7 +17452,7 @@
         <v>9</v>
       </c>
       <c r="M673" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="674" spans="8:13" x14ac:dyDescent="0.25">
@@ -17472,7 +17472,7 @@
         <v>9</v>
       </c>
       <c r="M674" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="675" spans="8:13" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
         <v>9</v>
       </c>
       <c r="M675" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="676" spans="8:13" x14ac:dyDescent="0.25">
@@ -17512,7 +17512,7 @@
         <v>9</v>
       </c>
       <c r="M676" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="677" spans="8:13" x14ac:dyDescent="0.25">
@@ -17532,7 +17532,7 @@
         <v>9</v>
       </c>
       <c r="M677" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="678" spans="8:13" x14ac:dyDescent="0.25">
@@ -17552,7 +17552,7 @@
         <v>9</v>
       </c>
       <c r="M678" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="679" spans="8:13" x14ac:dyDescent="0.25">
@@ -17572,7 +17572,7 @@
         <v>9</v>
       </c>
       <c r="M679" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="680" spans="8:13" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>9</v>
       </c>
       <c r="M680" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="681" spans="8:13" x14ac:dyDescent="0.25">
@@ -17612,7 +17612,7 @@
         <v>9</v>
       </c>
       <c r="M681" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="682" spans="8:13" x14ac:dyDescent="0.25">
@@ -17632,7 +17632,7 @@
         <v>9</v>
       </c>
       <c r="M682" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="683" spans="8:13" x14ac:dyDescent="0.25">
@@ -17652,7 +17652,7 @@
         <v>9</v>
       </c>
       <c r="M683" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="684" spans="8:13" x14ac:dyDescent="0.25">
@@ -17672,7 +17672,7 @@
         <v>9</v>
       </c>
       <c r="M684" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="685" spans="8:13" x14ac:dyDescent="0.25">
@@ -17692,7 +17692,7 @@
         <v>9</v>
       </c>
       <c r="M685" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="686" spans="8:13" x14ac:dyDescent="0.25">
@@ -17712,7 +17712,7 @@
         <v>9</v>
       </c>
       <c r="M686" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="687" spans="8:13" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>9</v>
       </c>
       <c r="M687" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="688" spans="8:13" x14ac:dyDescent="0.25">
@@ -17752,7 +17752,7 @@
         <v>9</v>
       </c>
       <c r="M688" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="689" spans="8:13" x14ac:dyDescent="0.25">
@@ -17772,7 +17772,7 @@
         <v>9</v>
       </c>
       <c r="M689" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="690" spans="8:13" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>9</v>
       </c>
       <c r="M690" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="691" spans="8:13" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>9</v>
       </c>
       <c r="M691" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="692" spans="8:13" x14ac:dyDescent="0.25">
@@ -17832,7 +17832,7 @@
         <v>9</v>
       </c>
       <c r="M692" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="693" spans="8:13" x14ac:dyDescent="0.25">
@@ -17852,7 +17852,7 @@
         <v>9</v>
       </c>
       <c r="M693" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="694" spans="8:13" x14ac:dyDescent="0.25">
@@ -17872,7 +17872,7 @@
         <v>9</v>
       </c>
       <c r="M694" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="695" spans="8:13" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>9</v>
       </c>
       <c r="M695" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="696" spans="8:13" x14ac:dyDescent="0.25">
@@ -17912,7 +17912,7 @@
         <v>9</v>
       </c>
       <c r="M696" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="697" spans="8:13" x14ac:dyDescent="0.25">
@@ -17932,7 +17932,7 @@
         <v>9</v>
       </c>
       <c r="M697" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="698" spans="8:13" x14ac:dyDescent="0.25">
@@ -17952,7 +17952,7 @@
         <v>9</v>
       </c>
       <c r="M698" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="699" spans="8:13" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
         <v>9</v>
       </c>
       <c r="M699" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="700" spans="8:13" x14ac:dyDescent="0.25">
@@ -17992,7 +17992,7 @@
         <v>9</v>
       </c>
       <c r="M700" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="701" spans="8:13" x14ac:dyDescent="0.25">
@@ -18012,7 +18012,7 @@
         <v>9</v>
       </c>
       <c r="M701" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="702" spans="8:13" x14ac:dyDescent="0.25">
@@ -18032,7 +18032,7 @@
         <v>9</v>
       </c>
       <c r="M702" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="703" spans="8:13" x14ac:dyDescent="0.25">
@@ -18052,7 +18052,7 @@
         <v>9</v>
       </c>
       <c r="M703" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="704" spans="8:13" x14ac:dyDescent="0.25">
@@ -18072,7 +18072,7 @@
         <v>9</v>
       </c>
       <c r="M704" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="705" spans="8:13" x14ac:dyDescent="0.25">
@@ -18092,7 +18092,7 @@
         <v>9</v>
       </c>
       <c r="M705" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="706" spans="8:13" x14ac:dyDescent="0.25">
@@ -18112,7 +18112,7 @@
         <v>9</v>
       </c>
       <c r="M706" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="707" spans="8:13" x14ac:dyDescent="0.25">
@@ -18132,7 +18132,7 @@
         <v>9</v>
       </c>
       <c r="M707" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="708" spans="8:13" x14ac:dyDescent="0.25">
@@ -18152,7 +18152,7 @@
         <v>9</v>
       </c>
       <c r="M708" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="709" spans="8:13" x14ac:dyDescent="0.25">
@@ -18172,7 +18172,7 @@
         <v>9</v>
       </c>
       <c r="M709" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="710" spans="8:13" x14ac:dyDescent="0.25">
@@ -18192,7 +18192,7 @@
         <v>9</v>
       </c>
       <c r="M710" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="711" spans="8:13" x14ac:dyDescent="0.25">
@@ -18212,7 +18212,7 @@
         <v>9</v>
       </c>
       <c r="M711" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="712" spans="8:13" x14ac:dyDescent="0.25">
@@ -18232,7 +18232,7 @@
         <v>9</v>
       </c>
       <c r="M712" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="713" spans="8:13" x14ac:dyDescent="0.25">
@@ -18252,7 +18252,7 @@
         <v>9</v>
       </c>
       <c r="M713" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="714" spans="8:13" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>9</v>
       </c>
       <c r="M714" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="715" spans="8:13" x14ac:dyDescent="0.25">
@@ -18292,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="M715" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="716" spans="8:13" x14ac:dyDescent="0.25">
@@ -18312,7 +18312,7 @@
         <v>9</v>
       </c>
       <c r="M716" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="717" spans="8:13" x14ac:dyDescent="0.25">
@@ -18332,7 +18332,7 @@
         <v>9</v>
       </c>
       <c r="M717" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="718" spans="8:13" x14ac:dyDescent="0.25">
@@ -18352,7 +18352,7 @@
         <v>9</v>
       </c>
       <c r="M718" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="719" spans="8:13" x14ac:dyDescent="0.25">
@@ -18372,7 +18372,7 @@
         <v>9</v>
       </c>
       <c r="M719" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="720" spans="8:13" x14ac:dyDescent="0.25">
@@ -18392,7 +18392,7 @@
         <v>9</v>
       </c>
       <c r="M720" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="721" spans="8:13" x14ac:dyDescent="0.25">
@@ -18412,7 +18412,7 @@
         <v>9</v>
       </c>
       <c r="M721" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="722" spans="8:13" x14ac:dyDescent="0.25">
@@ -18432,7 +18432,7 @@
         <v>9</v>
       </c>
       <c r="M722" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="723" spans="8:13" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
         <v>9</v>
       </c>
       <c r="M723" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="724" spans="8:13" x14ac:dyDescent="0.25">
@@ -18472,7 +18472,7 @@
         <v>9</v>
       </c>
       <c r="M724" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="725" spans="8:13" x14ac:dyDescent="0.25">
@@ -18492,7 +18492,7 @@
         <v>9</v>
       </c>
       <c r="M725" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="726" spans="8:13" x14ac:dyDescent="0.25">
@@ -18512,7 +18512,7 @@
         <v>9</v>
       </c>
       <c r="M726" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="727" spans="8:13" x14ac:dyDescent="0.25">
@@ -18532,7 +18532,7 @@
         <v>9</v>
       </c>
       <c r="M727" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="728" spans="8:13" x14ac:dyDescent="0.25">
@@ -18552,7 +18552,7 @@
         <v>9</v>
       </c>
       <c r="M728" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="729" spans="8:13" x14ac:dyDescent="0.25">
@@ -18572,7 +18572,7 @@
         <v>9</v>
       </c>
       <c r="M729" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="730" spans="8:13" x14ac:dyDescent="0.25">
@@ -18592,7 +18592,7 @@
         <v>9</v>
       </c>
       <c r="M730" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="731" spans="8:13" x14ac:dyDescent="0.25">
@@ -18612,7 +18612,7 @@
         <v>9</v>
       </c>
       <c r="M731" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="732" spans="8:13" x14ac:dyDescent="0.25">
@@ -18632,7 +18632,7 @@
         <v>9</v>
       </c>
       <c r="M732" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="733" spans="8:13" x14ac:dyDescent="0.25">
@@ -18652,7 +18652,7 @@
         <v>9</v>
       </c>
       <c r="M733" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="734" spans="8:13" x14ac:dyDescent="0.25">
@@ -18672,7 +18672,7 @@
         <v>9</v>
       </c>
       <c r="M734" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="735" spans="8:13" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>9</v>
       </c>
       <c r="M735" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="736" spans="8:13" x14ac:dyDescent="0.25">
@@ -18712,7 +18712,7 @@
         <v>9</v>
       </c>
       <c r="M736" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="737" spans="8:13" x14ac:dyDescent="0.25">
@@ -18732,7 +18732,7 @@
         <v>9</v>
       </c>
       <c r="M737" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="738" spans="8:13" x14ac:dyDescent="0.25">
@@ -18752,7 +18752,7 @@
         <v>9</v>
       </c>
       <c r="M738" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="739" spans="8:13" x14ac:dyDescent="0.25">
@@ -18772,7 +18772,7 @@
         <v>9</v>
       </c>
       <c r="M739" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="740" spans="8:13" x14ac:dyDescent="0.25">
@@ -18792,7 +18792,7 @@
         <v>9</v>
       </c>
       <c r="M740" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="741" spans="8:13" x14ac:dyDescent="0.25">
@@ -18812,7 +18812,7 @@
         <v>9</v>
       </c>
       <c r="M741" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="742" spans="8:13" x14ac:dyDescent="0.25">
@@ -18832,7 +18832,7 @@
         <v>9</v>
       </c>
       <c r="M742" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="743" spans="8:13" x14ac:dyDescent="0.25">
@@ -18852,7 +18852,7 @@
         <v>9</v>
       </c>
       <c r="M743" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="744" spans="8:13" x14ac:dyDescent="0.25">
@@ -18872,7 +18872,7 @@
         <v>9</v>
       </c>
       <c r="M744" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="745" spans="8:13" x14ac:dyDescent="0.25">
@@ -18892,7 +18892,7 @@
         <v>9</v>
       </c>
       <c r="M745" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="746" spans="8:13" x14ac:dyDescent="0.25">
@@ -18912,7 +18912,7 @@
         <v>9</v>
       </c>
       <c r="M746" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="747" spans="8:13" x14ac:dyDescent="0.25">
@@ -18932,7 +18932,7 @@
         <v>9</v>
       </c>
       <c r="M747" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="748" spans="8:13" x14ac:dyDescent="0.25">
@@ -18952,7 +18952,7 @@
         <v>9</v>
       </c>
       <c r="M748" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="749" spans="8:13" x14ac:dyDescent="0.25">
@@ -18972,7 +18972,7 @@
         <v>9</v>
       </c>
       <c r="M749" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="750" spans="8:13" x14ac:dyDescent="0.25">
@@ -18992,7 +18992,7 @@
         <v>9</v>
       </c>
       <c r="M750" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="751" spans="8:13" x14ac:dyDescent="0.25">
@@ -19012,7 +19012,7 @@
         <v>9</v>
       </c>
       <c r="M751" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="752" spans="8:13" x14ac:dyDescent="0.25">
@@ -19032,7 +19032,7 @@
         <v>9</v>
       </c>
       <c r="M752" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="753" spans="8:13" x14ac:dyDescent="0.25">
@@ -19052,7 +19052,7 @@
         <v>9</v>
       </c>
       <c r="M753" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="754" spans="8:13" x14ac:dyDescent="0.25">
@@ -19072,7 +19072,7 @@
         <v>9</v>
       </c>
       <c r="M754" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="755" spans="8:13" x14ac:dyDescent="0.25">
@@ -19092,7 +19092,7 @@
         <v>9</v>
       </c>
       <c r="M755" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="756" spans="8:13" x14ac:dyDescent="0.25">
@@ -19112,7 +19112,7 @@
         <v>9</v>
       </c>
       <c r="M756" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="757" spans="8:13" x14ac:dyDescent="0.25">
@@ -19132,7 +19132,7 @@
         <v>9</v>
       </c>
       <c r="M757" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="758" spans="8:13" x14ac:dyDescent="0.25">
@@ -19152,7 +19152,7 @@
         <v>9</v>
       </c>
       <c r="M758" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="759" spans="8:13" x14ac:dyDescent="0.25">
@@ -19172,7 +19172,7 @@
         <v>9</v>
       </c>
       <c r="M759" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="760" spans="8:13" x14ac:dyDescent="0.25">
@@ -19192,7 +19192,7 @@
         <v>9</v>
       </c>
       <c r="M760" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="761" spans="8:13" x14ac:dyDescent="0.25">
@@ -19212,7 +19212,7 @@
         <v>9</v>
       </c>
       <c r="M761" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="762" spans="8:13" x14ac:dyDescent="0.25">
@@ -19232,7 +19232,7 @@
         <v>9</v>
       </c>
       <c r="M762" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="763" spans="8:13" x14ac:dyDescent="0.25">
@@ -19252,7 +19252,7 @@
         <v>9</v>
       </c>
       <c r="M763" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="764" spans="8:13" x14ac:dyDescent="0.25">
@@ -19272,7 +19272,7 @@
         <v>9</v>
       </c>
       <c r="M764" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="765" spans="8:13" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
         <v>9</v>
       </c>
       <c r="M765" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="766" spans="8:13" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
         <v>9</v>
       </c>
       <c r="M766" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="767" spans="8:13" x14ac:dyDescent="0.25">
@@ -19332,7 +19332,7 @@
         <v>9</v>
       </c>
       <c r="M767" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="768" spans="8:13" x14ac:dyDescent="0.25">
@@ -19352,7 +19352,7 @@
         <v>9</v>
       </c>
       <c r="M768" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="769" spans="8:13" x14ac:dyDescent="0.25">
@@ -19372,7 +19372,7 @@
         <v>9</v>
       </c>
       <c r="M769" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="770" spans="8:13" x14ac:dyDescent="0.25">
@@ -19392,7 +19392,7 @@
         <v>9</v>
       </c>
       <c r="M770" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="771" spans="8:13" x14ac:dyDescent="0.25">
@@ -19412,7 +19412,7 @@
         <v>9</v>
       </c>
       <c r="M771" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="772" spans="8:13" x14ac:dyDescent="0.25">
@@ -19432,7 +19432,7 @@
         <v>9</v>
       </c>
       <c r="M772" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="773" spans="8:13" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>13</v>
       </c>
       <c r="M773" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="774" spans="8:13" x14ac:dyDescent="0.25">
@@ -19472,7 +19472,7 @@
         <v>13</v>
       </c>
       <c r="M774" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="775" spans="8:13" x14ac:dyDescent="0.25">
@@ -19492,7 +19492,7 @@
         <v>13</v>
       </c>
       <c r="M775" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="776" spans="8:13" x14ac:dyDescent="0.25">
@@ -19512,7 +19512,7 @@
         <v>13</v>
       </c>
       <c r="M776" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="777" spans="8:13" x14ac:dyDescent="0.25">
@@ -19532,7 +19532,7 @@
         <v>13</v>
       </c>
       <c r="M777" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="778" spans="8:13" x14ac:dyDescent="0.25">
@@ -19552,7 +19552,7 @@
         <v>13</v>
       </c>
       <c r="M778" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="779" spans="8:13" x14ac:dyDescent="0.25">
@@ -19572,7 +19572,7 @@
         <v>13</v>
       </c>
       <c r="M779" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="780" spans="8:13" x14ac:dyDescent="0.25">
@@ -19592,7 +19592,7 @@
         <v>13</v>
       </c>
       <c r="M780" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="781" spans="8:13" x14ac:dyDescent="0.25">
@@ -19612,7 +19612,7 @@
         <v>13</v>
       </c>
       <c r="M781" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="782" spans="8:13" x14ac:dyDescent="0.25">
@@ -19632,7 +19632,7 @@
         <v>13</v>
       </c>
       <c r="M782" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="783" spans="8:13" x14ac:dyDescent="0.25">
@@ -19652,7 +19652,7 @@
         <v>13</v>
       </c>
       <c r="M783" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="784" spans="8:13" x14ac:dyDescent="0.25">
@@ -19672,7 +19672,7 @@
         <v>13</v>
       </c>
       <c r="M784" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="785" spans="8:13" x14ac:dyDescent="0.25">
@@ -19692,7 +19692,7 @@
         <v>13</v>
       </c>
       <c r="M785" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="786" spans="8:13" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>13</v>
       </c>
       <c r="M786" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="787" spans="8:13" x14ac:dyDescent="0.25">
@@ -19732,7 +19732,7 @@
         <v>13</v>
       </c>
       <c r="M787" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="788" spans="8:13" x14ac:dyDescent="0.25">
@@ -19752,7 +19752,7 @@
         <v>13</v>
       </c>
       <c r="M788" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="789" spans="8:13" x14ac:dyDescent="0.25">
@@ -19772,7 +19772,7 @@
         <v>13</v>
       </c>
       <c r="M789" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="790" spans="8:13" x14ac:dyDescent="0.25">
@@ -19792,7 +19792,7 @@
         <v>13</v>
       </c>
       <c r="M790" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="791" spans="8:13" x14ac:dyDescent="0.25">
@@ -19812,7 +19812,7 @@
         <v>13</v>
       </c>
       <c r="M791" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="792" spans="8:13" x14ac:dyDescent="0.25">
@@ -19832,7 +19832,7 @@
         <v>13</v>
       </c>
       <c r="M792" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="793" spans="8:13" x14ac:dyDescent="0.25">
@@ -19852,7 +19852,7 @@
         <v>13</v>
       </c>
       <c r="M793" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="794" spans="8:13" x14ac:dyDescent="0.25">
@@ -19872,7 +19872,7 @@
         <v>13</v>
       </c>
       <c r="M794" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="795" spans="8:13" x14ac:dyDescent="0.25">
@@ -19892,7 +19892,7 @@
         <v>13</v>
       </c>
       <c r="M795" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="796" spans="8:13" x14ac:dyDescent="0.25">
@@ -19912,7 +19912,7 @@
         <v>13</v>
       </c>
       <c r="M796" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="797" spans="8:13" x14ac:dyDescent="0.25">
@@ -19932,7 +19932,7 @@
         <v>13</v>
       </c>
       <c r="M797" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="798" spans="8:13" x14ac:dyDescent="0.25">
@@ -19952,7 +19952,7 @@
         <v>13</v>
       </c>
       <c r="M798" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="799" spans="8:13" x14ac:dyDescent="0.25">
@@ -19972,7 +19972,7 @@
         <v>13</v>
       </c>
       <c r="M799" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="800" spans="8:13" x14ac:dyDescent="0.25">
@@ -19992,7 +19992,7 @@
         <v>13</v>
       </c>
       <c r="M800" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="801" spans="8:13" x14ac:dyDescent="0.25">
@@ -20012,7 +20012,7 @@
         <v>13</v>
       </c>
       <c r="M801" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="802" spans="8:13" x14ac:dyDescent="0.25">
@@ -20032,7 +20032,7 @@
         <v>13</v>
       </c>
       <c r="M802" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="803" spans="8:13" x14ac:dyDescent="0.25">
@@ -20052,7 +20052,7 @@
         <v>13</v>
       </c>
       <c r="M803" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="804" spans="8:13" x14ac:dyDescent="0.25">
@@ -20072,7 +20072,7 @@
         <v>13</v>
       </c>
       <c r="M804" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="805" spans="8:13" x14ac:dyDescent="0.25">
@@ -20092,7 +20092,7 @@
         <v>13</v>
       </c>
       <c r="M805" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="806" spans="8:13" x14ac:dyDescent="0.25">
@@ -20112,7 +20112,7 @@
         <v>13</v>
       </c>
       <c r="M806" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="807" spans="8:13" x14ac:dyDescent="0.25">
@@ -20132,7 +20132,7 @@
         <v>13</v>
       </c>
       <c r="M807" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="808" spans="8:13" x14ac:dyDescent="0.25">
@@ -20152,7 +20152,7 @@
         <v>13</v>
       </c>
       <c r="M808" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="809" spans="8:13" x14ac:dyDescent="0.25">
@@ -20172,7 +20172,7 @@
         <v>13</v>
       </c>
       <c r="M809" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="810" spans="8:13" x14ac:dyDescent="0.25">
@@ -20192,7 +20192,7 @@
         <v>13</v>
       </c>
       <c r="M810" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="811" spans="8:13" x14ac:dyDescent="0.25">
@@ -20212,7 +20212,7 @@
         <v>13</v>
       </c>
       <c r="M811" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="812" spans="8:13" x14ac:dyDescent="0.25">
@@ -20232,7 +20232,7 @@
         <v>13</v>
       </c>
       <c r="M812" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="813" spans="8:13" x14ac:dyDescent="0.25">
@@ -20252,7 +20252,7 @@
         <v>13</v>
       </c>
       <c r="M813" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="814" spans="8:13" x14ac:dyDescent="0.25">
@@ -20272,7 +20272,7 @@
         <v>13</v>
       </c>
       <c r="M814" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="815" spans="8:13" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
         <v>13</v>
       </c>
       <c r="M815" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="816" spans="8:13" x14ac:dyDescent="0.25">
@@ -20312,7 +20312,7 @@
         <v>13</v>
       </c>
       <c r="M816" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="817" spans="8:13" x14ac:dyDescent="0.25">
@@ -20332,7 +20332,7 @@
         <v>13</v>
       </c>
       <c r="M817" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="818" spans="8:13" x14ac:dyDescent="0.25">
@@ -20352,7 +20352,7 @@
         <v>13</v>
       </c>
       <c r="M818" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="819" spans="8:13" x14ac:dyDescent="0.25">
@@ -20372,7 +20372,7 @@
         <v>13</v>
       </c>
       <c r="M819" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="820" spans="8:13" x14ac:dyDescent="0.25">
@@ -20392,7 +20392,7 @@
         <v>13</v>
       </c>
       <c r="M820" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="821" spans="8:13" x14ac:dyDescent="0.25">
@@ -20412,7 +20412,7 @@
         <v>13</v>
       </c>
       <c r="M821" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="822" spans="8:13" x14ac:dyDescent="0.25">
@@ -20432,7 +20432,7 @@
         <v>13</v>
       </c>
       <c r="M822" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="823" spans="8:13" x14ac:dyDescent="0.25">
@@ -20452,7 +20452,7 @@
         <v>13</v>
       </c>
       <c r="M823" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="824" spans="8:13" x14ac:dyDescent="0.25">
@@ -20472,7 +20472,7 @@
         <v>13</v>
       </c>
       <c r="M824" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="825" spans="8:13" x14ac:dyDescent="0.25">
@@ -20492,7 +20492,7 @@
         <v>13</v>
       </c>
       <c r="M825" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="826" spans="8:13" x14ac:dyDescent="0.25">
@@ -20512,7 +20512,7 @@
         <v>13</v>
       </c>
       <c r="M826" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="827" spans="8:13" x14ac:dyDescent="0.25">
@@ -20532,7 +20532,7 @@
         <v>13</v>
       </c>
       <c r="M827" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="828" spans="8:13" x14ac:dyDescent="0.25">
@@ -20552,7 +20552,7 @@
         <v>13</v>
       </c>
       <c r="M828" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="829" spans="8:13" x14ac:dyDescent="0.25">
@@ -20572,7 +20572,7 @@
         <v>13</v>
       </c>
       <c r="M829" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="830" spans="8:13" x14ac:dyDescent="0.25">
@@ -20592,7 +20592,7 @@
         <v>13</v>
       </c>
       <c r="M830" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="831" spans="8:13" x14ac:dyDescent="0.25">
@@ -20612,7 +20612,7 @@
         <v>13</v>
       </c>
       <c r="M831" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="832" spans="8:13" x14ac:dyDescent="0.25">
@@ -20632,7 +20632,7 @@
         <v>13</v>
       </c>
       <c r="M832" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="833" spans="8:13" x14ac:dyDescent="0.25">
@@ -20652,7 +20652,7 @@
         <v>13</v>
       </c>
       <c r="M833" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="834" spans="8:13" x14ac:dyDescent="0.25">
@@ -20672,7 +20672,7 @@
         <v>13</v>
       </c>
       <c r="M834" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="835" spans="8:13" x14ac:dyDescent="0.25">
@@ -20692,7 +20692,7 @@
         <v>13</v>
       </c>
       <c r="M835" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="836" spans="8:13" x14ac:dyDescent="0.25">
@@ -20712,7 +20712,7 @@
         <v>13</v>
       </c>
       <c r="M836" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="837" spans="8:13" x14ac:dyDescent="0.25">
@@ -20732,7 +20732,7 @@
         <v>13</v>
       </c>
       <c r="M837" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="838" spans="8:13" x14ac:dyDescent="0.25">
@@ -20752,7 +20752,7 @@
         <v>13</v>
       </c>
       <c r="M838" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="839" spans="8:13" x14ac:dyDescent="0.25">
@@ -20772,7 +20772,7 @@
         <v>13</v>
       </c>
       <c r="M839" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="840" spans="8:13" x14ac:dyDescent="0.25">
@@ -20792,7 +20792,7 @@
         <v>13</v>
       </c>
       <c r="M840" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="841" spans="8:13" x14ac:dyDescent="0.25">
@@ -20812,7 +20812,7 @@
         <v>13</v>
       </c>
       <c r="M841" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="842" spans="8:13" x14ac:dyDescent="0.25">
@@ -20832,7 +20832,7 @@
         <v>13</v>
       </c>
       <c r="M842" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="843" spans="8:13" x14ac:dyDescent="0.25">
@@ -20852,7 +20852,7 @@
         <v>13</v>
       </c>
       <c r="M843" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="844" spans="8:13" x14ac:dyDescent="0.25">
@@ -20872,7 +20872,7 @@
         <v>13</v>
       </c>
       <c r="M844" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="845" spans="8:13" x14ac:dyDescent="0.25">
@@ -20892,7 +20892,7 @@
         <v>13</v>
       </c>
       <c r="M845" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="846" spans="8:13" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>13</v>
       </c>
       <c r="M846" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="847" spans="8:13" x14ac:dyDescent="0.25">
@@ -20932,7 +20932,7 @@
         <v>13</v>
       </c>
       <c r="M847" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="848" spans="8:13" x14ac:dyDescent="0.25">
@@ -20952,7 +20952,7 @@
         <v>13</v>
       </c>
       <c r="M848" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="849" spans="8:13" x14ac:dyDescent="0.25">
@@ -20972,7 +20972,7 @@
         <v>13</v>
       </c>
       <c r="M849" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="850" spans="8:13" x14ac:dyDescent="0.25">
@@ -20992,7 +20992,7 @@
         <v>13</v>
       </c>
       <c r="M850" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="851" spans="8:13" x14ac:dyDescent="0.25">
@@ -21012,7 +21012,7 @@
         <v>13</v>
       </c>
       <c r="M851" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="852" spans="8:13" x14ac:dyDescent="0.25">
@@ -21032,7 +21032,7 @@
         <v>13</v>
       </c>
       <c r="M852" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="853" spans="8:13" x14ac:dyDescent="0.25">
@@ -21052,7 +21052,7 @@
         <v>13</v>
       </c>
       <c r="M853" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="854" spans="8:13" x14ac:dyDescent="0.25">
@@ -21072,7 +21072,7 @@
         <v>13</v>
       </c>
       <c r="M854" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="855" spans="8:13" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
         <v>13</v>
       </c>
       <c r="M855" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="856" spans="8:13" x14ac:dyDescent="0.25">
@@ -21112,7 +21112,7 @@
         <v>13</v>
       </c>
       <c r="M856" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="857" spans="8:13" x14ac:dyDescent="0.25">
@@ -21132,7 +21132,7 @@
         <v>13</v>
       </c>
       <c r="M857" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="858" spans="8:13" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
         <v>13</v>
       </c>
       <c r="M858" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="859" spans="8:13" x14ac:dyDescent="0.25">
@@ -21172,7 +21172,7 @@
         <v>13</v>
       </c>
       <c r="M859" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="860" spans="8:13" x14ac:dyDescent="0.25">
@@ -21192,7 +21192,7 @@
         <v>13</v>
       </c>
       <c r="M860" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="861" spans="8:13" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
         <v>13</v>
       </c>
       <c r="M861" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="862" spans="8:13" x14ac:dyDescent="0.25">
@@ -21232,7 +21232,7 @@
         <v>13</v>
       </c>
       <c r="M862" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="863" spans="8:13" x14ac:dyDescent="0.25">
@@ -21252,7 +21252,7 @@
         <v>13</v>
       </c>
       <c r="M863" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="864" spans="8:13" x14ac:dyDescent="0.25">
@@ -21272,7 +21272,7 @@
         <v>13</v>
       </c>
       <c r="M864" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="865" spans="8:13" x14ac:dyDescent="0.25">
@@ -21292,7 +21292,7 @@
         <v>13</v>
       </c>
       <c r="M865" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="866" spans="8:13" x14ac:dyDescent="0.25">
@@ -21312,7 +21312,7 @@
         <v>13</v>
       </c>
       <c r="M866" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="867" spans="8:13" x14ac:dyDescent="0.25">
@@ -21332,7 +21332,7 @@
         <v>13</v>
       </c>
       <c r="M867" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="868" spans="8:13" x14ac:dyDescent="0.25">
@@ -21352,7 +21352,7 @@
         <v>13</v>
       </c>
       <c r="M868" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="869" spans="8:13" x14ac:dyDescent="0.25">
@@ -21372,7 +21372,7 @@
         <v>13</v>
       </c>
       <c r="M869" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="870" spans="8:13" x14ac:dyDescent="0.25">
@@ -21392,7 +21392,7 @@
         <v>13</v>
       </c>
       <c r="M870" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="871" spans="8:13" x14ac:dyDescent="0.25">
@@ -21412,7 +21412,7 @@
         <v>13</v>
       </c>
       <c r="M871" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="872" spans="8:13" x14ac:dyDescent="0.25">
@@ -21432,7 +21432,7 @@
         <v>13</v>
       </c>
       <c r="M872" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="873" spans="8:13" x14ac:dyDescent="0.25">
@@ -21452,7 +21452,7 @@
         <v>13</v>
       </c>
       <c r="M873" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="874" spans="8:13" x14ac:dyDescent="0.25">
@@ -21472,7 +21472,7 @@
         <v>13</v>
       </c>
       <c r="M874" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="875" spans="8:13" x14ac:dyDescent="0.25">
@@ -21492,7 +21492,7 @@
         <v>13</v>
       </c>
       <c r="M875" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="876" spans="8:13" x14ac:dyDescent="0.25">
@@ -21512,7 +21512,7 @@
         <v>13</v>
       </c>
       <c r="M876" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="877" spans="8:13" x14ac:dyDescent="0.25">
@@ -21532,7 +21532,7 @@
         <v>13</v>
       </c>
       <c r="M877" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="878" spans="8:13" x14ac:dyDescent="0.25">
@@ -21552,7 +21552,7 @@
         <v>13</v>
       </c>
       <c r="M878" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="879" spans="8:13" x14ac:dyDescent="0.25">
@@ -21572,7 +21572,7 @@
         <v>13</v>
       </c>
       <c r="M879" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="880" spans="8:13" x14ac:dyDescent="0.25">
@@ -21592,7 +21592,7 @@
         <v>13</v>
       </c>
       <c r="M880" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="881" spans="8:13" x14ac:dyDescent="0.25">
@@ -21612,7 +21612,7 @@
         <v>13</v>
       </c>
       <c r="M881" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="882" spans="8:13" x14ac:dyDescent="0.25">
@@ -21632,7 +21632,7 @@
         <v>13</v>
       </c>
       <c r="M882" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="883" spans="8:13" x14ac:dyDescent="0.25">
